--- a/Computer/OpCodes_v2.xlsx
+++ b/Computer/OpCodes_v2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001468D0-6B1E-42F6-B7FE-95BDE9D1C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDFDBC3-2312-4518-9A1B-A578A78F0CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="5" r:id="rId1"/>
     <sheet name="OpCode Organization" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Full List" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="662">
   <si>
     <t>PC</t>
     <phoneticPr fontId="1"/>
@@ -423,10 +423,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Indirect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Direct</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -577,6 +573,1960 @@
   </si>
   <si>
     <t>Code (8-F)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hex.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Binary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HLT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Halts the CPU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No operation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set Fault</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reset Fault</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enable Interrupt System</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disable Interrupt System</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set Link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reset Link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Complement Link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return from subroutine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0a</t>
+  </si>
+  <si>
+    <t>RI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return from interrupt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RIM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return from Interrupt Modified</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0c</t>
+  </si>
+  <si>
+    <t>ELO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enable Link Out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0d</t>
+  </si>
+  <si>
+    <t>PCX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer PC to X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0e</t>
+  </si>
+  <si>
+    <t>DLY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delay 4.5ms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0f</t>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC+N</t>
+  </si>
+  <si>
+    <t>Branch if link set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BNL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if link not set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if fault set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BNF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if fault not set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC+N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if equal to zero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BNZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if not equal to zero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if minus set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch on positive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if greater than zero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if less than or equal to zero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BS1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if sense switch 1 is set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BS2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if sense switch 2 is set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BS3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if sense switch 3 is set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BS4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if sense switch 4 is set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1e</t>
+  </si>
+  <si>
+    <t>Branch on teletype MARK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1f</t>
+  </si>
+  <si>
+    <t>Branch on even parity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment byte of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement byte of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Clear byte of explicit register (22 32 = CPU ID)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invert byte of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of explicit register left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of explicit register right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate byte of explicit register right (wraps through carry)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate byte of explicit register left (wraps through carry)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>Clear byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>Invert byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>Shift byte of implicit AL register left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>Shift byte of implicit AL register right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2e</t>
+  </si>
+  <si>
+    <t>Memory mapping?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2f</t>
+  </si>
+  <si>
+    <t>DMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment full word of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement full word of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear full word of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invert full word of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift full word of explicit register left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift full word of explicit register right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate full word of explicit register right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate full word of explicit register left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>3e</t>
+  </si>
+  <si>
+    <t>3f</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>Add bytes of two explicit registers (left plus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>Subtract bytes of two explicit registers (left minus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>AND bytes of two explicit registers (left AND right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR bytes of two explicit registers (left OR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XOR bytes of two explicit registers (left XOR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one explicit register into other explicit register (right into left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Execute micro code?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add bytes of implicit AL and BL (AL plus BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract bytes of implicit AL and BL (AL minus BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>AND bytes of implicit AL and BL (AL AND BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>4e</t>
+  </si>
+  <si>
+    <t>4f</t>
+  </si>
+  <si>
+    <t>Add two explicit registers (left plus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract two explicit registers (left minus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND two explicit registers (left AND right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR two explicit registers (left OR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XOR two explicit registers (left XOR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy one explicit register into other explicit register (right into left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add implicit AX and BX (AX plus BX stored in BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract implicit AX and BX (AX minus BX stored in BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>AND implicit AX and BX (AX AND BX stored in BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>5d</t>
+  </si>
+  <si>
+    <t>5e</t>
+  </si>
+  <si>
+    <t>5f</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>6c</t>
+  </si>
+  <si>
+    <t>6d</t>
+  </si>
+  <si>
+    <t>6e</t>
+  </si>
+  <si>
+    <t>6f</t>
+  </si>
+  <si>
+    <t>Jump to direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to indexed mode register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SYSCALL</t>
+  </si>
+  <si>
+    <t>Call interrupt level 15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>7c</t>
+  </si>
+  <si>
+    <t>7d</t>
+  </si>
+  <si>
+    <t>7e</t>
+  </si>
+  <si>
+    <t>Memory banking?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7f</t>
+  </si>
+  <si>
+    <t>Load direct address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indexed register into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>8c</t>
+  </si>
+  <si>
+    <t>8d</t>
+  </si>
+  <si>
+    <t>8e</t>
+  </si>
+  <si>
+    <t>8f</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>9c</t>
+  </si>
+  <si>
+    <t>9d</t>
+  </si>
+  <si>
+    <t>9e</t>
+  </si>
+  <si>
+    <t>9f</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>Store byte of AL register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>Store byte of AL register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>Store byte of AL register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>Store byte of AL register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>b8</t>
+  </si>
+  <si>
+    <t>b9</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>bf</t>
+  </si>
+  <si>
+    <t>c0</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>Load direct address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>Load indirect address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>Load indexed register into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>d0</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>e0</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>Store byte of BL register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>Store byte of BL register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>Store byte of BL register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>Store byte of BL register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>e6</t>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
+    <t>e8</t>
+  </si>
+  <si>
+    <t>e9</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t>eb</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>f0</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>f8</t>
+  </si>
+  <si>
+    <t>f9</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>fe</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>Address Byte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address Byte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BEP?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BTM?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IVR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RRR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RLR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_H/_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IVAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INAW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCAW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLAW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IVAW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRAW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLAW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement full word of implicit X register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment full word of implicit X register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift full word of implicit AW register right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift full word of implicit AW register left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invert full word of implicit AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear full word of implicit AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement full word of implicit AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment full word of implicit AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ORI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ORE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XFR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AABL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SABL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NABL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XAXL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XAYL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XABL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XAZL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XASL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer byte of implicit AL into XL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer byte of implicit AL into YL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer byte of implicit AL into BL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer byte of implicit AL into ZL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer byte of implicit AL into SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AABW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SABW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NABW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XAXW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XAYW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XABW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XAZW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XASW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer byte of implicit AW into SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer byte of implicit AW into ZW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer byte of implicit AW into BW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer byte of implicit AW into YW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer byte of implicit AW into XW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDXW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#Literal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#Literal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Direct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Indirect]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Indirect]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[PC+N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Offset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_W, Mod.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STXW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load literal word into word XW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct word from address into word XW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect word from address into word XW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into word XW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into word XW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indexed mode register into word XW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STXW?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of XW register into literal address (Not possible?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of XW register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of XW register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of XW register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of XW register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of XW register into indexed mode register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Literal (Literally the value written down)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Direct (The value at the memory location)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Indirect (The value at the location pointed to by the location written)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Literally what is written</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>What is stored in the location written</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>What is stored in the location pointed to by the location written</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The program counter offset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The location pointed to by the location offset from the program counter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modified addressing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Addressing Modes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to subroutine at indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to subroutine at Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to subroutine at indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to subroutine at indexed mode register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to literal address (Not possible?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to subroutine at direct address (Careful with JSR, check S register)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load literal address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[AW]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[BW]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[XW]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[YW]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ZW]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[S]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[C]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[P]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in AW into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in BW into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in XW into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in YW into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in ZW into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in S into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in C into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in P into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load literal address into word of AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct address into word of AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect address into word of AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into word of AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into word of AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indexed register into word of AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDAW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in AW into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in BW into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in XW into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in YW into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in ZW into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in S into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in C into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in P into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STAL?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of AL register into literal address (Not possible?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of AL register into indexed mode register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in AW into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in BW into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in XW into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in YW into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in ZW into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in S into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in C into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in P into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STAW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load literal address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in AW into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in BW into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in XW into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in YW into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in ZW into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in S into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in C into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in P into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load literal address into word of BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct address into word of BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect address into word of BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into word of BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into word of BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indexed register into word of BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDBW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STBL?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STBW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in C into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in P into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in S into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in ZW into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in YW into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in XW into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in BW into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in AW into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of BW register into indexed mode register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of BW register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of BW register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of BW register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of BW register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of BW register into literal address (Not possible?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in P into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in C into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in S into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in ZW into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in YW into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in XW into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in BW into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from memory address stored in AW into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into indexed mode register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into literal address (Not possible?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in P into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in C into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in S into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in ZW into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in YW into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in XW into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in BW into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in AW into BW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in P into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in C into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in S into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in ZW into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in YW into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in XW into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in BW into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from memory address stored in AW into AW register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of AW register into indexed mode register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of AW register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of AW register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of AW register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of AW register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word of AW register into literal address (Not possible?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump to subroutine at literal address (Not possible?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AH, AL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BH, BL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YH, YL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZH, ZL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SH, SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Registers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Full OpCode List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpCode Byte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_H/_L, _H/_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_W, _W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address registers by their nibble. For word, use leftmost nibble. For byte, nibble corresponds to high or low.
+AW = 0, AH = 0, AL = 1
+BW = 2, BH = 2, BL = 3
+etc.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -584,7 +2534,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="00"/>
+    <numFmt numFmtId="177" formatCode="0000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +2569,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -624,7 +2591,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -641,13 +2608,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,10 +2662,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,7 +3060,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B4" sqref="B4:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1009,14 +3071,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
@@ -1175,14 +3237,14 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
@@ -1268,14 +3330,14 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1295,8 +3357,8 @@
   </sheetPr>
   <dimension ref="B4:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1307,25 +3369,25 @@
     <col min="7" max="7" width="1.25" style="2" customWidth="1"/>
     <col min="8" max="9" width="11.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="1.25" customWidth="1"/>
-    <col min="11" max="11" width="63.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.625" customWidth="1"/>
     <col min="13" max="13" width="41.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
@@ -1358,24 +3420,24 @@
     </row>
     <row r="6" spans="2:13">
       <c r="M6" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
       <c r="M7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -1389,29 +3451,29 @@
         <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="M9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="M10" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="M10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -1421,37 +3483,37 @@
       <c r="C11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="27"/>
       <c r="K11" t="s">
         <v>78</v>
       </c>
       <c r="M11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="M13" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="M13" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -1459,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>81</v>
@@ -1468,7 +3530,7 @@
         <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -1476,13 +3538,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="M15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -1490,7 +3552,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>81</v>
@@ -1499,7 +3561,7 @@
         <v>77</v>
       </c>
       <c r="M16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -1507,40 +3569,40 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K17" t="s">
         <v>76</v>
       </c>
       <c r="M17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="M18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="M19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="M20" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="M20" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -1548,7 +3610,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>81</v>
@@ -1560,7 +3622,7 @@
         <v>75</v>
       </c>
       <c r="M21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:13">
@@ -1568,13 +3630,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="M22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:13">
@@ -1582,7 +3644,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>81</v>
@@ -1599,25 +3661,25 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="2" t="s">
@@ -1626,12 +3688,12 @@
       <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="27"/>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -1641,15 +3703,15 @@
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
       <c r="K28" t="s">
-        <v>84</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -1659,15 +3721,15 @@
       <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -1677,15 +3739,15 @@
       <c r="C30" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
       <c r="K30" t="s">
-        <v>96</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -1695,10 +3757,10 @@
       <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="27"/>
       <c r="K31" t="s">
         <v>95</v>
       </c>
@@ -1710,10 +3772,10 @@
       <c r="C32" s="2">
         <v>4</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="27"/>
       <c r="K32" t="s">
         <v>94</v>
       </c>
@@ -1731,10 +3793,10 @@
       <c r="F33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="7"/>
+      <c r="I33" s="27"/>
       <c r="K33" t="s">
         <v>93</v>
       </c>
@@ -1751,18 +3813,18 @@
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="B36" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="3" t="s">
@@ -1778,133 +3840,133 @@
       <c r="F37" s="2">
         <v>0</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="27"/>
       <c r="K37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
       <c r="K38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="F39" s="2">
         <v>2</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
       <c r="K39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="F40" s="2">
         <v>3</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
     </row>
     <row r="41" spans="2:11">
       <c r="F41" s="2">
         <v>4</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
       <c r="K41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:11">
       <c r="F42" s="2">
         <v>5</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="K42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="F43" s="2">
         <v>6</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="K43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:11">
       <c r="F44" s="2">
         <v>7</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" spans="2:11">
       <c r="F45" s="2">
         <v>8</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
       <c r="K45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="F46" s="2">
         <v>9</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
       <c r="K46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="F47" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
       <c r="K47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="2:11">
       <c r="F48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="49" spans="2:11">
       <c r="F49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
       <c r="K49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="F50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
       <c r="K50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -1919,22 +3981,22 @@
         <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H51" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="7"/>
+      <c r="I51" s="27"/>
       <c r="K51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="F52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -1980,66 +4042,5632 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5227A5C1-C0E7-481D-B30B-5F9C22B55C14}">
-  <dimension ref="C3:J4"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:V299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="1.25" customWidth="1"/>
-    <col min="6" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="1.25" customWidth="1"/>
-    <col min="9" max="10" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="11" customWidth="1"/>
+    <col min="4" max="5" width="7.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="2.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="26" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="76.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" style="8" customWidth="1"/>
+    <col min="13" max="13" width="5.75" customWidth="1"/>
+    <col min="14" max="16" width="5.75" style="7" customWidth="1"/>
+    <col min="17" max="17" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10">
-      <c r="C3" s="7" t="s">
+    <row r="2" spans="2:19">
+      <c r="B2" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="10"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="2:19" ht="18.75" customHeight="1">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="11">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="11">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="11">
+        <v>67</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="11">
+        <v>89</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>10</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>100</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="11">
+        <v>5</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>101</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="11">
+        <v>6</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>110</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="11">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>111</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="11">
+        <v>8</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="11">
+        <v>9</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+    </row>
+    <row r="30" spans="2:22" ht="7.5" customHeight="1">
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="11">
+        <v>10</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="11">
+        <v>11</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="11">
+        <v>12</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
+        <v>10</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="11">
+        <v>13</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12">
+        <v>11</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="11">
+        <v>14</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>100</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="11">
+        <v>15</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12">
+        <v>101</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="11">
+        <v>16</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <v>110</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="11">
+        <v>17</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12">
+        <v>111</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="11">
+        <v>18</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="11">
+        <v>19</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="2:15" ht="7.5" customHeight="1">
+      <c r="G47" s="15"/>
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="11">
+        <v>20</v>
+      </c>
+      <c r="D48" s="12">
+        <v>10</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="11">
+        <v>21</v>
+      </c>
+      <c r="D49" s="12">
+        <v>10</v>
+      </c>
+      <c r="E49" s="12">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="11">
+        <v>22</v>
+      </c>
+      <c r="D50" s="12">
+        <v>10</v>
+      </c>
+      <c r="E50" s="12">
+        <v>10</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="11">
+        <v>23</v>
+      </c>
+      <c r="D51" s="12">
+        <v>10</v>
+      </c>
+      <c r="E51" s="12">
+        <v>11</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="11">
+        <v>24</v>
+      </c>
+      <c r="D52" s="12">
+        <v>10</v>
+      </c>
+      <c r="E52" s="12">
+        <v>100</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="11">
+        <v>25</v>
+      </c>
+      <c r="D53" s="12">
+        <v>10</v>
+      </c>
+      <c r="E53" s="12">
+        <v>101</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="11">
+        <v>26</v>
+      </c>
+      <c r="D54" s="12">
+        <v>10</v>
+      </c>
+      <c r="E54" s="12">
+        <v>110</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="11">
+        <v>27</v>
+      </c>
+      <c r="D55" s="12">
+        <v>10</v>
+      </c>
+      <c r="E55" s="12">
+        <v>111</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G56" s="15"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="11">
+        <v>28</v>
+      </c>
+      <c r="D57" s="12">
+        <v>10</v>
+      </c>
+      <c r="E57" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="11">
+        <v>29</v>
+      </c>
+      <c r="D58" s="12">
+        <v>10</v>
+      </c>
+      <c r="E58" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="12">
+        <v>10</v>
+      </c>
+      <c r="E59" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="12">
+        <v>10</v>
+      </c>
+      <c r="E60" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="12">
+        <v>10</v>
+      </c>
+      <c r="E61" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="12">
+        <v>10</v>
+      </c>
+      <c r="E62" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="12">
+        <v>10</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="12">
+        <v>10</v>
+      </c>
+      <c r="E64" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="11">
+        <v>30</v>
+      </c>
+      <c r="D66" s="12">
+        <v>11</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="11">
+        <v>31</v>
+      </c>
+      <c r="D67" s="12">
+        <v>11</v>
+      </c>
+      <c r="E67" s="12">
+        <v>1</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="11">
+        <v>32</v>
+      </c>
+      <c r="D68" s="12">
+        <v>11</v>
+      </c>
+      <c r="E68" s="12">
+        <v>10</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="11">
+        <v>33</v>
+      </c>
+      <c r="D69" s="12">
+        <v>11</v>
+      </c>
+      <c r="E69" s="12">
+        <v>11</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="11">
+        <v>34</v>
+      </c>
+      <c r="D70" s="12">
+        <v>11</v>
+      </c>
+      <c r="E70" s="12">
+        <v>100</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" s="11">
+        <v>35</v>
+      </c>
+      <c r="D71" s="12">
+        <v>11</v>
+      </c>
+      <c r="E71" s="12">
+        <v>101</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" s="11">
+        <v>36</v>
+      </c>
+      <c r="D72" s="12">
+        <v>11</v>
+      </c>
+      <c r="E72" s="12">
+        <v>110</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" s="11">
+        <v>37</v>
+      </c>
+      <c r="D73" s="12">
+        <v>11</v>
+      </c>
+      <c r="E73" s="12">
+        <v>111</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G74" s="15"/>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" s="11">
+        <v>38</v>
+      </c>
+      <c r="D75" s="12">
+        <v>11</v>
+      </c>
+      <c r="E75" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="11">
+        <v>39</v>
+      </c>
+      <c r="D76" s="12">
+        <v>11</v>
+      </c>
+      <c r="E76" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D77" s="12">
+        <v>11</v>
+      </c>
+      <c r="E77" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D78" s="12">
+        <v>11</v>
+      </c>
+      <c r="E78" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" s="12">
+        <v>11</v>
+      </c>
+      <c r="E79" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80" s="12">
+        <v>11</v>
+      </c>
+      <c r="E80" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="12">
+        <v>11</v>
+      </c>
+      <c r="E81" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="12">
+        <v>11</v>
+      </c>
+      <c r="E82" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="7.5" customHeight="1">
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" s="11">
+        <v>40</v>
+      </c>
+      <c r="D84" s="12">
+        <v>100</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="11">
+        <v>41</v>
+      </c>
+      <c r="D85" s="12">
+        <v>100</v>
+      </c>
+      <c r="E85" s="12">
+        <v>1</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="11">
+        <v>42</v>
+      </c>
+      <c r="D86" s="12">
+        <v>100</v>
+      </c>
+      <c r="E86" s="12">
+        <v>10</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="11">
+        <v>43</v>
+      </c>
+      <c r="D87" s="12">
+        <v>100</v>
+      </c>
+      <c r="E87" s="12">
+        <v>11</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="11">
+        <v>44</v>
+      </c>
+      <c r="D88" s="12">
+        <v>100</v>
+      </c>
+      <c r="E88" s="12">
+        <v>100</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="11">
+        <v>45</v>
+      </c>
+      <c r="D89" s="12">
+        <v>100</v>
+      </c>
+      <c r="E89" s="12">
+        <v>101</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="11">
+        <v>46</v>
+      </c>
+      <c r="D90" s="12">
+        <v>100</v>
+      </c>
+      <c r="E90" s="12">
+        <v>110</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="11">
+        <v>47</v>
+      </c>
+      <c r="D91" s="12">
+        <v>100</v>
+      </c>
+      <c r="E91" s="12">
+        <v>111</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="7.5" customHeight="1">
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="11">
+        <v>48</v>
+      </c>
+      <c r="D93" s="12">
+        <v>100</v>
+      </c>
+      <c r="E93" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="11">
+        <v>49</v>
+      </c>
+      <c r="D94" s="12">
+        <v>100</v>
+      </c>
+      <c r="E94" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" s="12">
+        <v>100</v>
+      </c>
+      <c r="E95" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="12">
+        <v>100</v>
+      </c>
+      <c r="E96" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D97" s="12">
+        <v>100</v>
+      </c>
+      <c r="E97" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D98" s="12">
+        <v>100</v>
+      </c>
+      <c r="E98" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D99" s="12">
+        <v>100</v>
+      </c>
+      <c r="E99" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" s="12">
+        <v>100</v>
+      </c>
+      <c r="E100" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G101" s="15"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="11">
+        <v>50</v>
+      </c>
+      <c r="D102" s="12">
+        <v>101</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="11">
+        <v>51</v>
+      </c>
+      <c r="D103" s="12">
+        <v>101</v>
+      </c>
+      <c r="E103" s="12">
+        <v>1</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="11">
+        <v>52</v>
+      </c>
+      <c r="D104" s="12">
+        <v>101</v>
+      </c>
+      <c r="E104" s="12">
+        <v>10</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="11">
+        <v>53</v>
+      </c>
+      <c r="D105" s="12">
+        <v>101</v>
+      </c>
+      <c r="E105" s="12">
+        <v>11</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="11">
+        <v>54</v>
+      </c>
+      <c r="D106" s="12">
+        <v>101</v>
+      </c>
+      <c r="E106" s="12">
+        <v>100</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="11">
+        <v>55</v>
+      </c>
+      <c r="D107" s="12">
+        <v>101</v>
+      </c>
+      <c r="E107" s="12">
+        <v>101</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="11">
+        <v>56</v>
+      </c>
+      <c r="D108" s="12">
+        <v>101</v>
+      </c>
+      <c r="E108" s="12">
+        <v>110</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="11">
+        <v>57</v>
+      </c>
+      <c r="D109" s="12">
+        <v>101</v>
+      </c>
+      <c r="E109" s="12">
+        <v>111</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" ht="7.5" customHeight="1">
+      <c r="G110" s="15"/>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="11">
+        <v>58</v>
+      </c>
+      <c r="D111" s="12">
+        <v>101</v>
+      </c>
+      <c r="E111" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="11">
+        <v>59</v>
+      </c>
+      <c r="D112" s="12">
+        <v>101</v>
+      </c>
+      <c r="E112" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D113" s="12">
+        <v>101</v>
+      </c>
+      <c r="E113" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D114" s="12">
+        <v>101</v>
+      </c>
+      <c r="E114" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D115" s="12">
+        <v>101</v>
+      </c>
+      <c r="E115" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D116" s="12">
+        <v>101</v>
+      </c>
+      <c r="E116" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D117" s="12">
+        <v>101</v>
+      </c>
+      <c r="E117" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D118" s="12">
+        <v>101</v>
+      </c>
+      <c r="E118" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" ht="7.5" customHeight="1">
+      <c r="G119" s="15"/>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="11">
+        <v>60</v>
+      </c>
+      <c r="D120" s="12">
+        <v>110</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="I120" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="11">
+        <v>61</v>
+      </c>
+      <c r="D121" s="12">
+        <v>110</v>
+      </c>
+      <c r="E121" s="12">
+        <v>1</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I121" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="11">
+        <v>62</v>
+      </c>
+      <c r="D122" s="12">
+        <v>110</v>
+      </c>
+      <c r="E122" s="12">
+        <v>10</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="I122" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="11">
+        <v>63</v>
+      </c>
+      <c r="D123" s="12">
+        <v>110</v>
+      </c>
+      <c r="E123" s="12">
+        <v>11</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="11">
+        <v>64</v>
+      </c>
+      <c r="D124" s="12">
+        <v>110</v>
+      </c>
+      <c r="E124" s="12">
+        <v>100</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="11">
+        <v>65</v>
+      </c>
+      <c r="D125" s="12">
+        <v>110</v>
+      </c>
+      <c r="E125" s="12">
+        <v>101</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="I125" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="11">
+        <v>66</v>
+      </c>
+      <c r="D126" s="12">
+        <v>110</v>
+      </c>
+      <c r="E126" s="12">
+        <v>110</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="11">
+        <v>67</v>
+      </c>
+      <c r="D127" s="12">
+        <v>110</v>
+      </c>
+      <c r="E127" s="12">
+        <v>111</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G128" s="15"/>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="16">
         <v>68</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7" t="s">
+      <c r="C129" s="16"/>
+      <c r="D129" s="17">
+        <v>110</v>
+      </c>
+      <c r="E129" s="17">
+        <v>1000</v>
+      </c>
+      <c r="F129" s="17"/>
+      <c r="G129" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="J129" s="19"/>
+      <c r="K129" s="20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="11">
+        <v>69</v>
+      </c>
+      <c r="D130" s="12">
+        <v>110</v>
+      </c>
+      <c r="E130" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I130" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="K130" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D131" s="12">
+        <v>110</v>
+      </c>
+      <c r="E131" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I131" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D132" s="12">
+        <v>110</v>
+      </c>
+      <c r="E132" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D133" s="12">
+        <v>110</v>
+      </c>
+      <c r="E133" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G133" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D134" s="12">
+        <v>110</v>
+      </c>
+      <c r="E134" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G134" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I134" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D135" s="12">
+        <v>110</v>
+      </c>
+      <c r="E135" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G135" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D136" s="12">
+        <v>110</v>
+      </c>
+      <c r="E136" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G137" s="15"/>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="11">
         <v>70</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="7" t="s">
+      <c r="D138" s="12">
+        <v>111</v>
+      </c>
+      <c r="E138" s="12">
+        <v>0</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H138" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I138" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="K138" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="11">
         <v>71</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="3:10">
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
+      <c r="D139" s="12">
+        <v>111</v>
+      </c>
+      <c r="E139" s="12">
+        <v>1</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I139" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="11">
+        <v>72</v>
+      </c>
+      <c r="D140" s="12">
+        <v>111</v>
+      </c>
+      <c r="E140" s="12">
+        <v>10</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I140" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="11">
+        <v>73</v>
+      </c>
+      <c r="D141" s="12">
+        <v>111</v>
+      </c>
+      <c r="E141" s="12">
+        <v>11</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="11">
+        <v>74</v>
+      </c>
+      <c r="D142" s="12">
+        <v>111</v>
+      </c>
+      <c r="E142" s="12">
+        <v>100</v>
+      </c>
+      <c r="G142" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="11">
+        <v>75</v>
+      </c>
+      <c r="D143" s="12">
+        <v>111</v>
+      </c>
+      <c r="E143" s="12">
+        <v>101</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I143" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="11">
+        <v>76</v>
+      </c>
+      <c r="D144" s="12">
+        <v>111</v>
+      </c>
+      <c r="E144" s="12">
+        <v>110</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="11">
+        <v>77</v>
+      </c>
+      <c r="D145" s="12">
+        <v>111</v>
+      </c>
+      <c r="E145" s="12">
+        <v>111</v>
+      </c>
+      <c r="G145" s="15"/>
+    </row>
+    <row r="146" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G146" s="15"/>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="11">
+        <v>78</v>
+      </c>
+      <c r="D147" s="12">
+        <v>111</v>
+      </c>
+      <c r="E147" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I147" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="K147" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="11">
+        <v>79</v>
+      </c>
+      <c r="D148" s="12">
+        <v>111</v>
+      </c>
+      <c r="E148" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I148" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="K148" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D149" s="12">
+        <v>111</v>
+      </c>
+      <c r="E149" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I149" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="K149" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D150" s="12">
+        <v>111</v>
+      </c>
+      <c r="E150" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K150" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D151" s="12">
+        <v>111</v>
+      </c>
+      <c r="E151" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D152" s="12">
+        <v>111</v>
+      </c>
+      <c r="E152" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I152" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="K152" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D153" s="12">
+        <v>111</v>
+      </c>
+      <c r="E153" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G153" s="15"/>
+      <c r="K153" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D154" s="12">
+        <v>111</v>
+      </c>
+      <c r="E154" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G154" s="15"/>
+      <c r="K154" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" ht="7.5" customHeight="1">
+      <c r="G155" s="15"/>
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="11">
+        <v>80</v>
+      </c>
+      <c r="D156" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E156" s="12">
+        <v>0</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H156" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I156" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="K156" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="11">
+        <v>81</v>
+      </c>
+      <c r="D157" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E157" s="12">
+        <v>1</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I157" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11">
+      <c r="B158" s="11">
+        <v>82</v>
+      </c>
+      <c r="D158" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E158" s="12">
+        <v>10</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I158" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="K158" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="11">
+        <v>83</v>
+      </c>
+      <c r="D159" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E159" s="12">
+        <v>11</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K159" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="11">
+        <v>84</v>
+      </c>
+      <c r="D160" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E160" s="12">
+        <v>100</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="K160" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="11">
+        <v>85</v>
+      </c>
+      <c r="D161" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E161" s="12">
+        <v>101</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I161" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="K161" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" s="11">
+        <v>86</v>
+      </c>
+      <c r="D162" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E162" s="12">
+        <v>110</v>
+      </c>
+      <c r="G162" s="15"/>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="11">
+        <v>87</v>
+      </c>
+      <c r="D163" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E163" s="12">
+        <v>111</v>
+      </c>
+      <c r="G163" s="15"/>
+    </row>
+    <row r="164" spans="2:11" ht="7.5" customHeight="1">
+      <c r="G164" s="15"/>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="11">
+        <v>88</v>
+      </c>
+      <c r="D165" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E165" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G165" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="K165" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11">
+      <c r="B166" s="11">
+        <v>89</v>
+      </c>
+      <c r="D166" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E166" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K166" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D167" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E167" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11">
+      <c r="B168" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D168" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E168" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K168" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11">
+      <c r="B169" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D169" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E169" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K169" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11">
+      <c r="B170" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D170" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E170" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K170" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11">
+      <c r="B171" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D171" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E171" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G171" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K171" s="10" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11">
+      <c r="B172" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D172" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E172" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K172" s="10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G173" s="15"/>
+    </row>
+    <row r="174" spans="2:11">
+      <c r="B174" s="11">
+        <v>90</v>
+      </c>
+      <c r="D174" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E174" s="12">
+        <v>0</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H174" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I174" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="J174" s="9"/>
+      <c r="K174" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="B175" s="11">
+        <v>91</v>
+      </c>
+      <c r="D175" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E175" s="12">
+        <v>1</v>
+      </c>
+      <c r="G175" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I175" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="J175" s="9"/>
+      <c r="K175" s="10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11">
+      <c r="B176" s="11">
+        <v>92</v>
+      </c>
+      <c r="D176" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E176" s="12">
+        <v>10</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I176" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="J176" s="9"/>
+      <c r="K176" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11">
+      <c r="B177" s="11">
+        <v>93</v>
+      </c>
+      <c r="D177" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E177" s="12">
+        <v>11</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J177" s="9"/>
+      <c r="K177" s="10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11">
+      <c r="B178" s="11">
+        <v>94</v>
+      </c>
+      <c r="D178" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E178" s="12">
+        <v>100</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="J178" s="9"/>
+      <c r="K178" s="10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11">
+      <c r="B179" s="11">
+        <v>95</v>
+      </c>
+      <c r="D179" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E179" s="12">
+        <v>101</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I179" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="J179" s="9"/>
+      <c r="K179" s="10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11">
+      <c r="B180" s="11">
+        <v>96</v>
+      </c>
+      <c r="D180" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E180" s="12">
+        <v>110</v>
+      </c>
+      <c r="G180" s="15"/>
+    </row>
+    <row r="181" spans="2:11">
+      <c r="B181" s="11">
+        <v>97</v>
+      </c>
+      <c r="D181" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E181" s="12">
+        <v>111</v>
+      </c>
+      <c r="G181" s="15"/>
+    </row>
+    <row r="182" spans="2:11" ht="7.5" customHeight="1">
+      <c r="G182" s="15"/>
+    </row>
+    <row r="183" spans="2:11">
+      <c r="B183" s="11">
+        <v>98</v>
+      </c>
+      <c r="D183" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E183" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G183" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="K183" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11">
+      <c r="B184" s="11">
+        <v>99</v>
+      </c>
+      <c r="D184" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E184" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G184" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H184" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="K184" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11">
+      <c r="B185" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D185" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E185" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G185" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="K185" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11">
+      <c r="B186" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D186" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E186" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G186" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K186" s="10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11">
+      <c r="B187" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D187" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E187" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G187" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="K187" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11">
+      <c r="B188" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D188" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E188" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G188" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H188" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="K188" s="10" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11">
+      <c r="B189" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D189" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E189" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G189" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="K189" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11">
+      <c r="B190" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D190" s="12">
+        <v>1001</v>
+      </c>
+      <c r="E190" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G190" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H190" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="K190" s="10" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G191" s="15"/>
+    </row>
+    <row r="192" spans="2:11">
+      <c r="B192" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D192" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E192" s="12">
+        <v>0</v>
+      </c>
+      <c r="G192" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="H192" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I192" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="J192" s="19"/>
+      <c r="K192" s="20" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11">
+      <c r="B193" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D193" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E193" s="12">
+        <v>1</v>
+      </c>
+      <c r="G193" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I193" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="J193" s="9"/>
+      <c r="K193" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11">
+      <c r="B194" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D194" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E194" s="12">
+        <v>10</v>
+      </c>
+      <c r="G194" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I194" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="J194" s="9"/>
+      <c r="K194" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11">
+      <c r="B195" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D195" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E195" s="12">
+        <v>11</v>
+      </c>
+      <c r="G195" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J195" s="9"/>
+      <c r="K195" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11">
+      <c r="B196" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D196" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E196" s="12">
+        <v>100</v>
+      </c>
+      <c r="G196" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H196" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="J196" s="9"/>
+      <c r="K196" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11">
+      <c r="B197" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D197" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E197" s="12">
+        <v>101</v>
+      </c>
+      <c r="G197" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I197" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="J197" s="9"/>
+      <c r="K197" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11">
+      <c r="B198" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D198" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E198" s="12">
+        <v>110</v>
+      </c>
+      <c r="G198" s="13"/>
+    </row>
+    <row r="199" spans="2:11">
+      <c r="B199" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D199" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E199" s="12">
+        <v>111</v>
+      </c>
+      <c r="G199" s="13"/>
+    </row>
+    <row r="200" spans="2:11" ht="7.5" customHeight="1">
+      <c r="G200" s="15"/>
+    </row>
+    <row r="201" spans="2:11">
+      <c r="B201" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D201" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E201" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G201" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H201" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="J201" s="9"/>
+      <c r="K201" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11">
+      <c r="B202" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D202" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E202" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G202" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H202" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="J202" s="9"/>
+      <c r="K202" s="10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11">
+      <c r="B203" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D203" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E203" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G203" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H203" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="J203" s="9"/>
+      <c r="K203" s="10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11">
+      <c r="B204" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D204" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E204" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G204" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H204" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="J204" s="9"/>
+      <c r="K204" s="10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11">
+      <c r="B205" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D205" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E205" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G205" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H205" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="J205" s="9"/>
+      <c r="K205" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11">
+      <c r="B206" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D206" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E206" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G206" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H206" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="J206" s="9"/>
+      <c r="K206" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11">
+      <c r="B207" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D207" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E207" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G207" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="J207" s="9"/>
+      <c r="K207" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11">
+      <c r="B208" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D208" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E208" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G208" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H208" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="J208" s="9"/>
+      <c r="K208" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G209" s="15"/>
+    </row>
+    <row r="210" spans="2:11">
+      <c r="B210" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D210" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E210" s="12">
+        <v>0</v>
+      </c>
+      <c r="G210" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H210" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I210" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="J210" s="19"/>
+      <c r="K210" s="20" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11">
+      <c r="B211" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D211" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E211" s="12">
+        <v>1</v>
+      </c>
+      <c r="G211" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H211" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I211" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="J211" s="9"/>
+      <c r="K211" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11">
+      <c r="B212" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D212" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E212" s="12">
+        <v>10</v>
+      </c>
+      <c r="G212" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H212" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I212" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="J212" s="9"/>
+      <c r="K212" s="10" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11">
+      <c r="B213" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D213" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E213" s="12">
+        <v>11</v>
+      </c>
+      <c r="G213" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H213" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J213" s="9"/>
+      <c r="K213" s="10" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11">
+      <c r="B214" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D214" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E214" s="12">
+        <v>100</v>
+      </c>
+      <c r="G214" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H214" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="J214" s="9"/>
+      <c r="K214" s="10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11">
+      <c r="B215" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D215" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E215" s="12">
+        <v>101</v>
+      </c>
+      <c r="G215" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H215" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I215" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="J215" s="9"/>
+      <c r="K215" s="10" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11">
+      <c r="B216" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D216" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E216" s="12">
+        <v>110</v>
+      </c>
+      <c r="G216" s="15"/>
+      <c r="H216" s="9"/>
+      <c r="J216" s="9"/>
+      <c r="K216" s="10"/>
+    </row>
+    <row r="217" spans="2:11">
+      <c r="B217" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D217" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E217" s="12">
+        <v>111</v>
+      </c>
+      <c r="G217" s="15"/>
+      <c r="H217" s="9"/>
+      <c r="J217" s="9"/>
+      <c r="K217" s="10"/>
+    </row>
+    <row r="218" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G218" s="15"/>
+      <c r="H218" s="9"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="10"/>
+    </row>
+    <row r="219" spans="2:11">
+      <c r="B219" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D219" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E219" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G219" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H219" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="J219" s="9"/>
+      <c r="K219" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="220" spans="2:11">
+      <c r="B220" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D220" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E220" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G220" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H220" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="J220" s="9"/>
+      <c r="K220" s="10" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11">
+      <c r="B221" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D221" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E221" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G221" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H221" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="J221" s="9"/>
+      <c r="K221" s="10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11">
+      <c r="B222" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D222" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E222" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G222" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H222" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="J222" s="9"/>
+      <c r="K222" s="10" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11">
+      <c r="B223" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D223" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E223" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G223" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H223" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="J223" s="9"/>
+      <c r="K223" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11">
+      <c r="B224" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D224" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E224" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G224" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H224" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="J224" s="9"/>
+      <c r="K224" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11">
+      <c r="B225" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D225" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E225" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G225" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H225" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="J225" s="9"/>
+      <c r="K225" s="10" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11">
+      <c r="B226" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D226" s="12">
+        <v>1011</v>
+      </c>
+      <c r="E226" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G226" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H226" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="J226" s="9"/>
+      <c r="K226" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G227" s="15"/>
+    </row>
+    <row r="228" spans="2:11">
+      <c r="B228" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D228" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E228" s="12">
+        <v>0</v>
+      </c>
+      <c r="G228" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H228" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I228" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="J228" s="9"/>
+      <c r="K228" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11">
+      <c r="B229" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D229" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E229" s="12">
+        <v>1</v>
+      </c>
+      <c r="G229" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H229" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I229" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="J229" s="9"/>
+      <c r="K229" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11">
+      <c r="B230" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D230" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E230" s="12">
+        <v>10</v>
+      </c>
+      <c r="G230" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H230" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I230" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="J230" s="9"/>
+      <c r="K230" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11">
+      <c r="B231" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D231" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E231" s="12">
+        <v>11</v>
+      </c>
+      <c r="G231" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H231" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J231" s="9"/>
+      <c r="K231" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11">
+      <c r="B232" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D232" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E232" s="12">
+        <v>100</v>
+      </c>
+      <c r="G232" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H232" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="J232" s="9"/>
+      <c r="K232" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11">
+      <c r="B233" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D233" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E233" s="12">
+        <v>101</v>
+      </c>
+      <c r="G233" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H233" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I233" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="J233" s="9"/>
+      <c r="K233" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="234" spans="2:11">
+      <c r="B234" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D234" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E234" s="12">
+        <v>110</v>
+      </c>
+      <c r="G234" s="15"/>
+      <c r="H234" s="9"/>
+      <c r="J234" s="9"/>
+      <c r="K234" s="10"/>
+    </row>
+    <row r="235" spans="2:11">
+      <c r="B235" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D235" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E235" s="12">
+        <v>111</v>
+      </c>
+      <c r="G235" s="15"/>
+      <c r="H235" s="9"/>
+      <c r="J235" s="9"/>
+      <c r="K235" s="10"/>
+    </row>
+    <row r="236" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G236" s="15"/>
+      <c r="H236" s="9"/>
+      <c r="J236" s="9"/>
+      <c r="K236" s="10"/>
+    </row>
+    <row r="237" spans="2:11">
+      <c r="B237" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D237" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E237" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G237" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H237" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="J237" s="9"/>
+      <c r="K237" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11">
+      <c r="B238" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D238" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E238" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G238" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H238" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="J238" s="9"/>
+      <c r="K238" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11">
+      <c r="B239" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D239" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E239" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G239" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H239" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="J239" s="9"/>
+      <c r="K239" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11">
+      <c r="B240" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D240" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E240" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G240" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H240" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="J240" s="9"/>
+      <c r="K240" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11">
+      <c r="B241" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D241" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E241" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G241" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H241" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="J241" s="9"/>
+      <c r="K241" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11">
+      <c r="B242" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D242" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E242" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G242" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H242" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="J242" s="9"/>
+      <c r="K242" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11">
+      <c r="B243" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D243" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E243" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G243" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H243" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="J243" s="9"/>
+      <c r="K243" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11">
+      <c r="B244" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D244" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E244" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G244" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H244" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="J244" s="9"/>
+      <c r="K244" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G245" s="15"/>
+      <c r="H245" s="9"/>
+      <c r="J245" s="9"/>
+      <c r="K245" s="10"/>
+    </row>
+    <row r="246" spans="2:11">
+      <c r="B246" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D246" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E246" s="12">
+        <v>0</v>
+      </c>
+      <c r="G246" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H246" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I246" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="J246" s="9"/>
+      <c r="K246" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11">
+      <c r="B247" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D247" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E247" s="12">
+        <v>1</v>
+      </c>
+      <c r="G247" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H247" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I247" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="J247" s="9"/>
+      <c r="K247" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="248" spans="2:11">
+      <c r="B248" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D248" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E248" s="12">
+        <v>10</v>
+      </c>
+      <c r="G248" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H248" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I248" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="J248" s="9"/>
+      <c r="K248" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11">
+      <c r="B249" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D249" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E249" s="12">
+        <v>11</v>
+      </c>
+      <c r="G249" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H249" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J249" s="9"/>
+      <c r="K249" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="250" spans="2:11">
+      <c r="B250" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D250" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E250" s="12">
+        <v>100</v>
+      </c>
+      <c r="G250" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H250" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="J250" s="9"/>
+      <c r="K250" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11">
+      <c r="B251" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D251" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E251" s="12">
+        <v>101</v>
+      </c>
+      <c r="G251" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H251" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I251" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="J251" s="9"/>
+      <c r="K251" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11">
+      <c r="B252" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D252" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E252" s="12">
+        <v>110</v>
+      </c>
+      <c r="G252" s="15"/>
+      <c r="H252" s="9"/>
+      <c r="J252" s="9"/>
+      <c r="K252" s="10"/>
+    </row>
+    <row r="253" spans="2:11">
+      <c r="B253" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D253" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E253" s="12">
+        <v>111</v>
+      </c>
+      <c r="G253" s="15"/>
+      <c r="H253" s="9"/>
+      <c r="J253" s="9"/>
+      <c r="K253" s="10"/>
+    </row>
+    <row r="254" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G254" s="15"/>
+      <c r="H254" s="9"/>
+      <c r="J254" s="9"/>
+      <c r="K254" s="10"/>
+    </row>
+    <row r="255" spans="2:11">
+      <c r="B255" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D255" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E255" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G255" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H255" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="J255" s="9"/>
+      <c r="K255" s="10" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="256" spans="2:11">
+      <c r="B256" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D256" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E256" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G256" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H256" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="J256" s="9"/>
+      <c r="K256" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="257" spans="2:11">
+      <c r="B257" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D257" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E257" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G257" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H257" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="J257" s="9"/>
+      <c r="K257" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="258" spans="2:11">
+      <c r="B258" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D258" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E258" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G258" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H258" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="J258" s="9"/>
+      <c r="K258" s="10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="259" spans="2:11">
+      <c r="B259" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D259" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E259" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G259" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H259" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="J259" s="9"/>
+      <c r="K259" s="10" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="260" spans="2:11">
+      <c r="B260" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D260" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E260" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G260" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H260" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="J260" s="9"/>
+      <c r="K260" s="10" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="261" spans="2:11">
+      <c r="B261" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D261" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E261" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G261" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H261" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="J261" s="9"/>
+      <c r="K261" s="10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="262" spans="2:11">
+      <c r="B262" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D262" s="12">
+        <v>1101</v>
+      </c>
+      <c r="E262" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G262" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H262" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="J262" s="9"/>
+      <c r="K262" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="263" spans="2:11" ht="7.5" customHeight="1">
+      <c r="G263" s="15"/>
+      <c r="H263" s="9"/>
+      <c r="J263" s="9"/>
+      <c r="K263" s="10"/>
+    </row>
+    <row r="264" spans="2:11">
+      <c r="B264" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D264" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E264" s="12">
+        <v>0</v>
+      </c>
+      <c r="G264" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="H264" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I264" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="J264" s="19"/>
+      <c r="K264" s="20" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="265" spans="2:11">
+      <c r="B265" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D265" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E265" s="12">
+        <v>1</v>
+      </c>
+      <c r="G265" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H265" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I265" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="J265" s="9"/>
+      <c r="K265" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="266" spans="2:11">
+      <c r="B266" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D266" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E266" s="12">
+        <v>10</v>
+      </c>
+      <c r="G266" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H266" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I266" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="J266" s="9"/>
+      <c r="K266" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="267" spans="2:11">
+      <c r="B267" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D267" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E267" s="12">
+        <v>11</v>
+      </c>
+      <c r="G267" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H267" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J267" s="9"/>
+      <c r="K267" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="268" spans="2:11">
+      <c r="B268" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D268" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E268" s="12">
+        <v>100</v>
+      </c>
+      <c r="G268" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H268" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="J268" s="9"/>
+      <c r="K268" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="269" spans="2:11">
+      <c r="B269" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D269" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E269" s="12">
+        <v>101</v>
+      </c>
+      <c r="G269" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H269" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I269" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="J269" s="9"/>
+      <c r="K269" s="10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="270" spans="2:11">
+      <c r="B270" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D270" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E270" s="12">
+        <v>110</v>
+      </c>
+      <c r="G270" s="13"/>
+      <c r="H270" s="9"/>
+      <c r="J270" s="9"/>
+      <c r="K270" s="10"/>
+    </row>
+    <row r="271" spans="2:11">
+      <c r="B271" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D271" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E271" s="12">
+        <v>111</v>
+      </c>
+      <c r="G271" s="13"/>
+      <c r="H271" s="9"/>
+      <c r="J271" s="9"/>
+      <c r="K271" s="10"/>
+    </row>
+    <row r="272" spans="2:11" ht="6.75" customHeight="1">
+      <c r="G272" s="15"/>
+      <c r="H272" s="9"/>
+      <c r="J272" s="9"/>
+      <c r="K272" s="10"/>
+    </row>
+    <row r="273" spans="2:11">
+      <c r="B273" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D273" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E273" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G273" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H273" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="J273" s="9"/>
+      <c r="K273" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="274" spans="2:11">
+      <c r="B274" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D274" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E274" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G274" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H274" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="J274" s="9"/>
+      <c r="K274" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="275" spans="2:11">
+      <c r="B275" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D275" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E275" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G275" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H275" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="J275" s="9"/>
+      <c r="K275" s="10" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="276" spans="2:11">
+      <c r="B276" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D276" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E276" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G276" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H276" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="J276" s="9"/>
+      <c r="K276" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="277" spans="2:11">
+      <c r="B277" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D277" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E277" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G277" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H277" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="J277" s="9"/>
+      <c r="K277" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="278" spans="2:11">
+      <c r="B278" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D278" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E278" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G278" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H278" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="J278" s="9"/>
+      <c r="K278" s="10" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11">
+      <c r="B279" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D279" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E279" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G279" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H279" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="J279" s="9"/>
+      <c r="K279" s="10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="280" spans="2:11">
+      <c r="B280" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D280" s="12">
+        <v>1110</v>
+      </c>
+      <c r="E280" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G280" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="H280" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="J280" s="9"/>
+      <c r="K280" s="10" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="281" spans="2:11" ht="7.5" customHeight="1">
+      <c r="G281" s="15"/>
+      <c r="H281" s="9"/>
+      <c r="J281" s="9"/>
+      <c r="K281" s="10"/>
+    </row>
+    <row r="282" spans="2:11">
+      <c r="B282" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D282" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E282" s="12">
+        <v>0</v>
+      </c>
+      <c r="G282" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H282" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I282" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="J282" s="19"/>
+      <c r="K282" s="20" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="283" spans="2:11">
+      <c r="B283" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D283" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E283" s="12">
+        <v>1</v>
+      </c>
+      <c r="G283" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H283" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I283" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="J283" s="9"/>
+      <c r="K283" s="10" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="284" spans="2:11">
+      <c r="B284" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D284" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E284" s="12">
+        <v>10</v>
+      </c>
+      <c r="G284" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H284" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I284" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="J284" s="9"/>
+      <c r="K284" s="10" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="285" spans="2:11">
+      <c r="B285" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D285" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E285" s="12">
+        <v>11</v>
+      </c>
+      <c r="G285" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H285" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J285" s="9"/>
+      <c r="K285" s="10" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="286" spans="2:11">
+      <c r="B286" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D286" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E286" s="12">
+        <v>100</v>
+      </c>
+      <c r="G286" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H286" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="J286" s="9"/>
+      <c r="K286" s="10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11">
+      <c r="B287" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D287" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E287" s="12">
+        <v>101</v>
+      </c>
+      <c r="G287" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H287" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I287" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="J287" s="9"/>
+      <c r="K287" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="288" spans="2:11">
+      <c r="B288" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D288" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E288" s="12">
+        <v>110</v>
+      </c>
+      <c r="G288" s="15"/>
+      <c r="H288" s="9"/>
+      <c r="J288" s="9"/>
+      <c r="K288" s="10"/>
+    </row>
+    <row r="289" spans="2:11">
+      <c r="B289" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D289" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E289" s="12">
+        <v>111</v>
+      </c>
+      <c r="G289" s="15"/>
+      <c r="H289" s="9"/>
+      <c r="J289" s="9"/>
+      <c r="K289" s="10"/>
+    </row>
+    <row r="290" spans="2:11" ht="7.5" customHeight="1">
+      <c r="G290" s="15"/>
+      <c r="H290" s="9"/>
+      <c r="J290" s="9"/>
+      <c r="K290" s="10"/>
+    </row>
+    <row r="291" spans="2:11">
+      <c r="B291" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D291" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E291" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G291" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H291" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="J291" s="9"/>
+      <c r="K291" s="10" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="292" spans="2:11">
+      <c r="B292" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D292" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E292" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G292" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H292" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="J292" s="9"/>
+      <c r="K292" s="10" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="293" spans="2:11">
+      <c r="B293" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="D293" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E293" s="12">
+        <v>1010</v>
+      </c>
+      <c r="G293" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H293" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="J293" s="9"/>
+      <c r="K293" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="294" spans="2:11">
+      <c r="B294" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D294" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E294" s="12">
+        <v>1011</v>
+      </c>
+      <c r="G294" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H294" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="J294" s="9"/>
+      <c r="K294" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="295" spans="2:11">
+      <c r="B295" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="D295" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E295" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G295" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H295" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="J295" s="9"/>
+      <c r="K295" s="10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="296" spans="2:11">
+      <c r="B296" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="D296" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E296" s="12">
+        <v>1101</v>
+      </c>
+      <c r="G296" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H296" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="J296" s="9"/>
+      <c r="K296" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="297" spans="2:11">
+      <c r="B297" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="D297" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E297" s="12">
+        <v>1110</v>
+      </c>
+      <c r="G297" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H297" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="J297" s="9"/>
+      <c r="K297" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="298" spans="2:11">
+      <c r="B298" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D298" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E298" s="12">
+        <v>1111</v>
+      </c>
+      <c r="G298" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H298" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="J298" s="9"/>
+      <c r="K298" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="299" spans="2:11" ht="6.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
+  <mergeCells count="5">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="G3:H10"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Computer/OpCodes_v2.xlsx
+++ b/Computer/OpCodes_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDFDBC3-2312-4518-9A1B-A578A78F0CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01DE94C-6428-4ECD-A660-54FBB328094A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="667">
   <si>
     <t>PC</t>
     <phoneticPr fontId="1"/>
@@ -2527,6 +2527,27 @@
 AW = 0, AH = 0, AL = 1
 BW = 2, BH = 2, BL = 3
 etc.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nibble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Each register is addressed by its nibble. For word operations, use the Leftmost nibble. For byte operations, the nibble corresponds to the high byte or low byte.
+Ex.: AW = 0, AH = 0, AL = 1, BW = 2, BH = 2, BL = 3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2634,7 +2655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2720,12 +2741,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2742,6 +2766,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3057,293 +3084,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31608F8-E98F-475F-AA33-3AE3FA9918CE}">
-  <dimension ref="B2:G25"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="91.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="11"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="91.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="11">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="C11" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="37" t="s">
+        <v>666</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="1" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G17" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="1" t="s">
+    <row r="18" spans="2:8">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="1" t="s">
+    <row r="19" spans="2:8">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1" t="s">
+    <row r="20" spans="2:8">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="1" t="s">
+    <row r="22" spans="2:8">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1" t="s">
+    <row r="23" spans="2:8">
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="1" t="s">
+    <row r="24" spans="2:8">
+      <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="1" t="s">
+    <row r="25" spans="2:8">
+      <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="1" t="s">
+    <row r="26" spans="2:8">
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="28" t="s">
+    <row r="28" spans="2:8">
+      <c r="B28" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B25:G25"/>
+  <mergeCells count="4">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B13:H14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3424,18 +3510,18 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
       <c r="M7" t="s">
         <v>116</v>
       </c>
@@ -3460,18 +3546,18 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
       <c r="M10" t="s">
         <v>121</v>
       </c>
@@ -3483,10 +3569,10 @@
       <c r="C11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="28"/>
       <c r="K11" t="s">
         <v>78</v>
       </c>
@@ -3500,18 +3586,18 @@
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
       <c r="M13" t="s">
         <v>124</v>
       </c>
@@ -3589,18 +3675,18 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
       <c r="M20" t="s">
         <v>130</v>
       </c>
@@ -3668,18 +3754,18 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="2" t="s">
@@ -3688,10 +3774,10 @@
       <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="28"/>
       <c r="K27" t="s">
         <v>516</v>
       </c>
@@ -3703,13 +3789,13 @@
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
       <c r="K28" t="s">
         <v>516</v>
       </c>
@@ -3721,13 +3807,13 @@
       <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="K29" t="s">
         <v>517</v>
       </c>
@@ -3739,13 +3825,13 @@
       <c r="C30" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="K30" t="s">
         <v>518</v>
       </c>
@@ -3757,10 +3843,10 @@
       <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="28"/>
       <c r="K31" t="s">
         <v>95</v>
       </c>
@@ -3772,10 +3858,10 @@
       <c r="C32" s="2">
         <v>4</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="27"/>
+      <c r="F32" s="28"/>
       <c r="K32" t="s">
         <v>94</v>
       </c>
@@ -3793,10 +3879,10 @@
       <c r="F33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="27"/>
+      <c r="I33" s="28"/>
       <c r="K33" t="s">
         <v>93</v>
       </c>
@@ -3813,18 +3899,18 @@
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="3" t="s">
@@ -3840,10 +3926,10 @@
       <c r="F37" s="2">
         <v>0</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="27"/>
+      <c r="I37" s="28"/>
       <c r="K37" t="s">
         <v>104</v>
       </c>
@@ -3852,8 +3938,8 @@
       <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
       <c r="K38" t="s">
         <v>105</v>
       </c>
@@ -3862,8 +3948,8 @@
       <c r="F39" s="2">
         <v>2</v>
       </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
       <c r="K39" t="s">
         <v>106</v>
       </c>
@@ -3872,15 +3958,15 @@
       <c r="F40" s="2">
         <v>3</v>
       </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="2:11">
       <c r="F41" s="2">
         <v>4</v>
       </c>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
       <c r="K41" t="s">
         <v>107</v>
       </c>
@@ -3889,8 +3975,8 @@
       <c r="F42" s="2">
         <v>5</v>
       </c>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="K42" t="s">
         <v>108</v>
       </c>
@@ -3899,8 +3985,8 @@
       <c r="F43" s="2">
         <v>6</v>
       </c>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="K43" t="s">
         <v>109</v>
       </c>
@@ -3909,15 +3995,15 @@
       <c r="F44" s="2">
         <v>7</v>
       </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
     </row>
     <row r="45" spans="2:11">
       <c r="F45" s="2">
         <v>8</v>
       </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
       <c r="K45" t="s">
         <v>110</v>
       </c>
@@ -3926,8 +4012,8 @@
       <c r="F46" s="2">
         <v>9</v>
       </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
       <c r="K46" t="s">
         <v>111</v>
       </c>
@@ -3936,8 +4022,8 @@
       <c r="F47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
       <c r="K47" t="s">
         <v>112</v>
       </c>
@@ -3946,15 +4032,15 @@
       <c r="F48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
     </row>
     <row r="49" spans="2:11">
       <c r="F49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
       <c r="K49" t="s">
         <v>114</v>
       </c>
@@ -3963,8 +4049,8 @@
       <c r="F50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
       <c r="K50" t="s">
         <v>113</v>
       </c>
@@ -3983,10 +4069,10 @@
       <c r="F51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="27"/>
+      <c r="I51" s="28"/>
       <c r="K51" t="s">
         <v>115</v>
       </c>
@@ -3995,28 +4081,11 @@
       <c r="F52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="B10:K10"/>
@@ -4033,6 +4102,23 @@
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4047,7 +4133,7 @@
   </sheetPr>
   <dimension ref="B2:V299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
@@ -4070,20 +4156,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>653</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="29" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="10"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -4103,10 +4189,10 @@
       <c r="E3" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="32" t="s">
         <v>661</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="19" t="s">
         <v>494</v>
       </c>
@@ -4134,8 +4220,8 @@
       <c r="E4" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="26" t="s">
         <v>96</v>
       </c>
@@ -4161,8 +4247,8 @@
         <v>649</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="26" t="s">
         <v>497</v>
       </c>
@@ -4190,8 +4276,8 @@
       <c r="E6" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="26" t="s">
         <v>183</v>
       </c>
@@ -4219,8 +4305,8 @@
       <c r="E7" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="26" t="s">
         <v>499</v>
       </c>
@@ -4248,8 +4334,8 @@
       <c r="E8" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="26" t="s">
         <v>501</v>
       </c>
@@ -4273,8 +4359,8 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -4292,8 +4378,8 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -4339,10 +4425,10 @@
         <v>135</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25" t="s">
         <v>655</v>

--- a/Computer/OpCodes_v2.xlsx
+++ b/Computer/OpCodes_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01DE94C-6428-4ECD-A660-54FBB328094A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4A2374-0F63-4044-B653-032B92488488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="670">
   <si>
     <t>PC</t>
     <phoneticPr fontId="1"/>
@@ -455,54 +455,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Index</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Index; Index returned, incremented by ^</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement and Index</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Index indirect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Index indirect; Index returned, incremented by ^</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement and index indirect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Index with displacement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Index with displacement; Index returned, incremented by ^</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement and index with displacement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Index with displacement indirect, Index returned, incremented by ^</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Index with displacement indirect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement and index with displacement indirect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0 = Control</t>
   </si>
   <si>
@@ -872,41 +824,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Increment byte of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement byte of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CLR</t>
   </si>
   <si>
-    <t>Clear byte of explicit register (22 32 = CPU ID)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invert byte of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift byte of explicit register left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift byte of explicit register right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rotate byte of explicit register right (wraps through carry)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rotate byte of explicit register left (wraps through carry)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Increment byte of implicit AL register</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -957,38 +877,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Increment full word of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement full word of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear full word of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invert full word of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift full word of explicit register left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift full word of explicit register right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rotate full word of explicit register right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rotate full word of explicit register left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3a</t>
   </si>
   <si>
@@ -1635,10 +1523,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>_H/_L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INAL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1664,10 +1548,6 @@
   </si>
   <si>
     <t>??</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_W</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2548,6 +2428,138 @@
   <si>
     <t>Each register is addressed by its nibble. For word operations, use the Leftmost nibble. For byte operations, the nibble corresponds to the high byte or low byte.
 Ex.: AW = 0, AH = 0, AL = 1, BW = 2, BH = 2, BL = 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use register as address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use register as address and increment after</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement register and then use as address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use register as indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use register as indirect address and increment after</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement register and then use as indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add displacement byte to register and use as address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add displacement byte to register and use as address, then increment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement register, add displacement byte to register and use as address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add displacement byte to register and use as indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add displacement byte to register and use as indirect address, then increment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement register, add displacement byte to register and use as indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_L, Const.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment byte of explicit register by 1 + constant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement byte of explicit register by 1 + constant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear byte of explicit register to constant (22 32 = CPU ID)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invert byte of explicit register, constant 1 is negate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of explicit register left by 1 + constant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of explicit register right by 1 + constant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate byte of explicit register right by 1 + constant (wraps through carry)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate byte of explicit register left by 1 + constant (wraps through carry)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_W, Const.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment full word of explicit register by 1 + constant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement full word of explicit register by 1 + constant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear full word of explicit register to constant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invert full word of explicit register, constant 1 is negate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift full word of explicit register left by 1 + constant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift full word of explicit register right by 1 + constant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate full word of explicit register right by 1 + constant (wraps through carry)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate full word of explicit register left by 1 + constant (wraps through carry)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#Literal(?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Direct(?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Indirect](?)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2655,7 +2667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2744,12 +2756,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2766,9 +2784,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3086,7 +3101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31608F8-E98F-475F-AA33-3AE3FA9918CE}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -3100,22 +3115,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -3247,7 +3262,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>60</v>
@@ -3270,7 +3285,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -3284,7 +3299,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -3294,24 +3309,24 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="37" t="s">
-        <v>666</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="B13" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="27"/>
@@ -3320,15 +3335,15 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="1" t="s">
@@ -3414,15 +3429,15 @@
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3443,8 +3458,8 @@
   </sheetPr>
   <dimension ref="B4:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3455,25 +3470,25 @@
     <col min="7" max="7" width="1.25" style="2" customWidth="1"/>
     <col min="8" max="9" width="11.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="1.25" customWidth="1"/>
-    <col min="11" max="11" width="62.625" customWidth="1"/>
+    <col min="11" max="11" width="78.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
@@ -3506,24 +3521,24 @@
     </row>
     <row r="6" spans="2:13">
       <c r="M6" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -3537,29 +3552,29 @@
         <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="M9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
       <c r="M10" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -3569,37 +3584,37 @@
       <c r="C11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="K11" t="s">
         <v>78</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
       <c r="M13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -3607,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>81</v>
@@ -3616,7 +3631,7 @@
         <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -3624,13 +3639,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="M15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -3638,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>81</v>
@@ -3647,7 +3662,7 @@
         <v>77</v>
       </c>
       <c r="M16" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -3655,40 +3670,40 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K17" t="s">
         <v>76</v>
       </c>
       <c r="M17" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="M18" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="M19" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
       <c r="M20" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -3696,7 +3711,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>81</v>
@@ -3708,7 +3723,7 @@
         <v>75</v>
       </c>
       <c r="M21" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:13">
@@ -3716,13 +3731,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="M22" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:13">
@@ -3730,7 +3745,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>81</v>
@@ -3747,25 +3762,25 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="2" t="s">
@@ -3774,12 +3789,12 @@
       <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="29"/>
       <c r="K27" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -3789,15 +3804,15 @@
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
       <c r="K28" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -3807,15 +3822,15 @@
       <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
       <c r="K29" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -3825,15 +3840,15 @@
       <c r="C30" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
       <c r="K30" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -3843,10 +3858,10 @@
       <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="29"/>
       <c r="K31" t="s">
         <v>95</v>
       </c>
@@ -3858,10 +3873,10 @@
       <c r="C32" s="2">
         <v>4</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="29"/>
       <c r="K32" t="s">
         <v>94</v>
       </c>
@@ -3879,10 +3894,10 @@
       <c r="F33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="H33" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="28"/>
+      <c r="I33" s="29"/>
       <c r="K33" t="s">
         <v>93</v>
       </c>
@@ -3899,18 +3914,18 @@
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="3" t="s">
@@ -3920,139 +3935,180 @@
         <v>5</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="28" t="s">
         <v>89</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
       </c>
-      <c r="H37" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
       <c r="K37" t="s">
-        <v>104</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="2:11">
+      <c r="E38" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
       <c r="K38" t="s">
-        <v>105</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="2:11">
+      <c r="E39" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="F39" s="2">
         <v>2</v>
       </c>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
       <c r="K39" t="s">
-        <v>106</v>
+        <v>639</v>
       </c>
     </row>
     <row r="40" spans="2:11">
+      <c r="E40" s="28"/>
       <c r="F40" s="2">
         <v>3</v>
       </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" spans="2:11">
+      <c r="E41" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="F41" s="2">
         <v>4</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
       <c r="K41" t="s">
-        <v>107</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="2:11">
+      <c r="E42" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="F42" s="2">
         <v>5</v>
       </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
       <c r="K42" t="s">
-        <v>108</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="2:11">
+      <c r="E43" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="F43" s="2">
         <v>6</v>
       </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
       <c r="K43" t="s">
-        <v>109</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="2:11">
+      <c r="E44" s="28"/>
       <c r="F44" s="2">
         <v>7</v>
       </c>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
     </row>
     <row r="45" spans="2:11">
+      <c r="E45" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="F45" s="2">
         <v>8</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
+      <c r="H45" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" s="29"/>
       <c r="K45" t="s">
-        <v>110</v>
+        <v>643</v>
       </c>
     </row>
     <row r="46" spans="2:11">
+      <c r="E46" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="F46" s="2">
         <v>9</v>
       </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
+      <c r="H46" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="29"/>
       <c r="K46" t="s">
-        <v>111</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="2:11">
+      <c r="E47" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="F47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+      <c r="H47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="29"/>
       <c r="K47" t="s">
-        <v>112</v>
+        <v>645</v>
       </c>
     </row>
     <row r="48" spans="2:11">
+      <c r="E48" s="28"/>
       <c r="F48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
     </row>
     <row r="49" spans="2:11">
+      <c r="E49" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="F49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
+      <c r="H49" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="29"/>
       <c r="K49" t="s">
-        <v>114</v>
+        <v>646</v>
       </c>
     </row>
     <row r="50" spans="2:11">
+      <c r="E50" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
+      <c r="H50" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="29"/>
       <c r="K50" t="s">
-        <v>113</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -4069,23 +4125,40 @@
       <c r="F51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="28" t="s">
+      <c r="H51" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="28"/>
+      <c r="I51" s="29"/>
       <c r="K51" t="s">
-        <v>115</v>
+        <v>648</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="F52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="B10:K10"/>
@@ -4102,23 +4175,6 @@
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4133,8 +4189,8 @@
   </sheetPr>
   <dimension ref="B2:V299"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="I228" sqref="I228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4156,20 +4212,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="34" t="s">
-        <v>653</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="10"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -4187,18 +4243,18 @@
         <v>47</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>661</v>
-      </c>
-      <c r="H3" s="33"/>
+        <v>617</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="H3" s="35"/>
       <c r="I3" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -4218,16 +4274,16 @@
         <v>50</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
+        <v>618</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="26" t="s">
         <v>96</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
@@ -4244,17 +4300,17 @@
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="26" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
@@ -4274,16 +4330,16 @@
         <v>54</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
+        <v>620</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="26" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
@@ -4303,16 +4359,16 @@
         <v>57</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
+        <v>621</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="26" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -4323,7 +4379,7 @@
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="11" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>6</v>
@@ -4332,16 +4388,16 @@
         <v>60</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+        <v>622</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="26" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -4352,15 +4408,15 @@
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="11" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -4371,15 +4427,15 @@
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="11" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -4402,18 +4458,18 @@
       <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="B12" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="10"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -4422,26 +4478,26 @@
     </row>
     <row r="13" spans="2:19">
       <c r="B13" s="23" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="36"/>
+      <c r="D13" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="38"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="14"/>
@@ -4463,10 +4519,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
@@ -4485,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -4507,10 +4563,10 @@
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
@@ -4529,10 +4585,10 @@
         <v>11</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
@@ -4554,10 +4610,10 @@
         <v>100</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -4576,10 +4632,10 @@
         <v>101</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -4601,7 +4657,7 @@
         <v>62</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -4620,10 +4676,10 @@
         <v>111</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -4642,10 +4698,10 @@
         <v>1000</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -4663,10 +4719,10 @@
         <v>1001</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
@@ -4681,7 +4737,7 @@
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D24" s="12">
         <v>0</v>
@@ -4690,10 +4746,10 @@
         <v>1010</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
@@ -4708,7 +4764,7 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="11" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D25" s="12">
         <v>0</v>
@@ -4717,10 +4773,10 @@
         <v>1011</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
@@ -4735,7 +4791,7 @@
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D26" s="12">
         <v>0</v>
@@ -4744,10 +4800,10 @@
         <v>1100</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -4762,7 +4818,7 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="11" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>
@@ -4771,10 +4827,10 @@
         <v>1101</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
@@ -4789,7 +4845,7 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="11" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D28" s="12">
         <v>0</v>
@@ -4798,10 +4854,10 @@
         <v>1110</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
@@ -4816,7 +4872,7 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="11" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
@@ -4825,7 +4881,7 @@
         <v>1111</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
@@ -4855,10 +4911,10 @@
         <v>52</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="O31" s="12"/>
     </row>
@@ -4873,13 +4929,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="O32" s="12"/>
     </row>
@@ -4894,13 +4950,13 @@
         <v>10</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="O33" s="12"/>
     </row>
@@ -4915,13 +4971,13 @@
         <v>11</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="O34" s="12"/>
     </row>
@@ -4936,13 +4992,13 @@
         <v>100</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="O35" s="12"/>
     </row>
@@ -4957,13 +5013,13 @@
         <v>101</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="O36" s="12"/>
     </row>
@@ -4978,13 +5034,13 @@
         <v>110</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="O37" s="12"/>
     </row>
@@ -4999,13 +5055,13 @@
         <v>111</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="O38" s="12"/>
     </row>
@@ -5020,13 +5076,13 @@
         <v>1000</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="O39" s="12"/>
     </row>
@@ -5041,19 +5097,19 @@
         <v>1001</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="O40" s="12"/>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="11" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D41" s="12">
         <v>1</v>
@@ -5062,19 +5118,19 @@
         <v>1010</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="O41" s="12"/>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="11" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D42" s="12">
         <v>1</v>
@@ -5083,19 +5139,19 @@
         <v>1011</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="O42" s="12"/>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="11" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D43" s="12">
         <v>1</v>
@@ -5104,19 +5160,19 @@
         <v>1100</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="O43" s="12"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="11" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D44" s="12">
         <v>1</v>
@@ -5125,19 +5181,19 @@
         <v>1101</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="11" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D45" s="12">
         <v>1</v>
@@ -5146,19 +5202,19 @@
         <v>1110</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="11" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D46" s="12">
         <v>1</v>
@@ -5167,13 +5223,13 @@
         <v>1111</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="O46" s="12"/>
     </row>
@@ -5192,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>439</v>
+        <v>649</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>211</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -5212,13 +5268,13 @@
         <v>1</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>439</v>
+        <v>405</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>649</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>212</v>
+        <v>651</v>
       </c>
     </row>
     <row r="50" spans="2:11">
@@ -5232,13 +5288,13 @@
         <v>10</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>439</v>
+        <v>199</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>649</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>214</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -5252,13 +5308,13 @@
         <v>11</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>439</v>
+        <v>406</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>649</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>215</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -5272,13 +5328,13 @@
         <v>100</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>439</v>
+        <v>407</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>649</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>216</v>
+        <v>654</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -5292,13 +5348,13 @@
         <v>101</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>439</v>
+        <v>408</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>649</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>217</v>
+        <v>655</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -5312,13 +5368,13 @@
         <v>110</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>439</v>
+        <v>409</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>649</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>218</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -5332,13 +5388,13 @@
         <v>111</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>439</v>
+        <v>410</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>649</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>219</v>
+        <v>657</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="6.75" customHeight="1">
@@ -5355,10 +5411,10 @@
         <v>1000</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -5372,15 +5428,15 @@
         <v>1001</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="11" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D59" s="12">
         <v>10</v>
@@ -5389,15 +5445,15 @@
         <v>1010</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="11" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="D60" s="12">
         <v>10</v>
@@ -5406,15 +5462,15 @@
         <v>1011</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="11" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D61" s="12">
         <v>10</v>
@@ -5423,15 +5479,15 @@
         <v>1100</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="11" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="D62" s="12">
         <v>10</v>
@@ -5440,15 +5496,15 @@
         <v>1101</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="11" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D63" s="12">
         <v>10</v>
@@ -5457,15 +5513,15 @@
         <v>1110</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="11" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D64" s="12">
         <v>10</v>
@@ -5474,10 +5530,10 @@
         <v>1111</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="6.75" customHeight="1">
@@ -5494,13 +5550,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>447</v>
+        <v>658</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>234</v>
+        <v>659</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -5514,13 +5570,13 @@
         <v>1</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>447</v>
+        <v>405</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>658</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>235</v>
+        <v>660</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -5534,13 +5590,13 @@
         <v>10</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>447</v>
+        <v>199</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>658</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>236</v>
+        <v>661</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -5554,13 +5610,13 @@
         <v>11</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>447</v>
+        <v>406</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>658</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>237</v>
+        <v>662</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -5574,13 +5630,13 @@
         <v>100</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>447</v>
+        <v>407</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>658</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>238</v>
+        <v>663</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -5594,13 +5650,13 @@
         <v>101</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>447</v>
+        <v>408</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>658</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>239</v>
+        <v>664</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -5614,13 +5670,13 @@
         <v>110</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>447</v>
+        <v>409</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>658</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>240</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -5634,13 +5690,13 @@
         <v>111</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>447</v>
+        <v>410</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>658</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>241</v>
+        <v>666</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="6.75" customHeight="1">
@@ -5657,10 +5713,10 @@
         <v>1000</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -5674,15 +5730,15 @@
         <v>1001</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="11" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="D77" s="12">
         <v>11</v>
@@ -5691,15 +5747,15 @@
         <v>1010</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="11" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D78" s="12">
         <v>11</v>
@@ -5708,15 +5764,15 @@
         <v>1011</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="11" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="D79" s="12">
         <v>11</v>
@@ -5725,15 +5781,15 @@
         <v>1100</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="11" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="D80" s="12">
         <v>11</v>
@@ -5742,15 +5798,15 @@
         <v>1101</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="11" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="D81" s="12">
         <v>11</v>
@@ -5759,15 +5815,15 @@
         <v>1110</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="11" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="D82" s="12">
         <v>11</v>
@@ -5776,10 +5832,10 @@
         <v>1111</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="7.5" customHeight="1">
@@ -5796,13 +5852,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="2:11">
@@ -5816,13 +5872,13 @@
         <v>1</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="2:11">
@@ -5836,13 +5892,13 @@
         <v>10</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="2:11">
@@ -5856,13 +5912,13 @@
         <v>11</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -5876,13 +5932,13 @@
         <v>100</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="2:11">
@@ -5896,13 +5952,13 @@
         <v>101</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -5916,7 +5972,7 @@
         <v>110</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -5930,10 +5986,10 @@
         <v>111</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="2:11" ht="7.5" customHeight="1">
@@ -5950,10 +6006,10 @@
         <v>1000</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -5967,15 +6023,15 @@
         <v>1001</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="11" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="D95" s="12">
         <v>100</v>
@@ -5984,15 +6040,15 @@
         <v>1010</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="11" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="D96" s="12">
         <v>100</v>
@@ -6001,15 +6057,15 @@
         <v>1011</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="11" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="D97" s="12">
         <v>100</v>
@@ -6018,15 +6074,15 @@
         <v>1100</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="11" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="D98" s="12">
         <v>100</v>
@@ -6035,15 +6091,15 @@
         <v>1101</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="11" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="D99" s="12">
         <v>100</v>
@@ -6052,15 +6108,15 @@
         <v>1110</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="11" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="D100" s="12">
         <v>100</v>
@@ -6069,10 +6125,10 @@
         <v>1111</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="2:11" ht="6.75" customHeight="1">
@@ -6089,13 +6145,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="2:11">
@@ -6109,13 +6165,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="2:11">
@@ -6129,13 +6185,13 @@
         <v>10</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="2:11">
@@ -6149,13 +6205,13 @@
         <v>11</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="2:11">
@@ -6169,13 +6225,13 @@
         <v>100</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="2:11">
@@ -6189,13 +6245,13 @@
         <v>101</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="2:11">
@@ -6209,7 +6265,7 @@
         <v>110</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
     </row>
     <row r="109" spans="2:11">
@@ -6223,7 +6279,7 @@
         <v>111</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
     </row>
     <row r="110" spans="2:11" ht="7.5" customHeight="1">
@@ -6240,10 +6296,10 @@
         <v>1000</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="2:11">
@@ -6257,15 +6313,15 @@
         <v>1001</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" s="11" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="D113" s="12">
         <v>101</v>
@@ -6274,15 +6330,15 @@
         <v>1010</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="B114" s="11" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="D114" s="12">
         <v>101</v>
@@ -6291,15 +6347,15 @@
         <v>1011</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="11" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="D115" s="12">
         <v>101</v>
@@ -6308,15 +6364,15 @@
         <v>1100</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" s="11" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="D116" s="12">
         <v>101</v>
@@ -6325,15 +6381,15 @@
         <v>1101</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="2:11">
       <c r="B117" s="11" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D117" s="12">
         <v>101</v>
@@ -6342,15 +6398,15 @@
         <v>1110</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="B118" s="11" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="D118" s="12">
         <v>101</v>
@@ -6359,10 +6415,10 @@
         <v>1111</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="2:11" ht="7.5" customHeight="1">
@@ -6379,16 +6435,16 @@
         <v>0</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I120" s="26" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="2:11">
@@ -6402,16 +6458,16 @@
         <v>1</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>96</v>
       </c>
       <c r="I121" s="26" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="2:11">
@@ -6425,16 +6481,16 @@
         <v>10</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="2:11">
@@ -6448,13 +6504,13 @@
         <v>11</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="2:11">
@@ -6468,13 +6524,13 @@
         <v>100</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="2:11">
@@ -6488,16 +6544,16 @@
         <v>101</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="I125" s="26" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="2:11">
@@ -6511,7 +6567,7 @@
         <v>110</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="2:11">
@@ -6525,7 +6581,7 @@
         <v>111</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128" spans="2:11" ht="6.75" customHeight="1">
@@ -6544,17 +6600,17 @@
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="18" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="J129" s="19"/>
       <c r="K129" s="20" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="2:11">
@@ -6568,21 +6624,21 @@
         <v>1001</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I130" s="26" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" s="11" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="D131" s="12">
         <v>110</v>
@@ -6591,21 +6647,21 @@
         <v>1010</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I131" s="26" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="11" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="D132" s="12">
         <v>110</v>
@@ -6614,18 +6670,18 @@
         <v>1011</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="2:11">
       <c r="B133" s="11" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="D133" s="12">
         <v>110</v>
@@ -6634,18 +6690,18 @@
         <v>1100</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="11" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="D134" s="12">
         <v>110</v>
@@ -6654,21 +6710,21 @@
         <v>1101</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="2:11">
       <c r="B135" s="11" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="D135" s="12">
         <v>110</v>
@@ -6677,12 +6733,12 @@
         <v>1110</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="11" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="D136" s="12">
         <v>110</v>
@@ -6691,7 +6747,7 @@
         <v>1111</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="2:11" ht="6.75" customHeight="1">
@@ -6708,16 +6764,16 @@
         <v>0</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="2:11">
@@ -6731,16 +6787,16 @@
         <v>1</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="2:11">
@@ -6754,16 +6810,16 @@
         <v>10</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="2:11">
@@ -6777,13 +6833,13 @@
         <v>11</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" spans="2:11">
@@ -6797,13 +6853,13 @@
         <v>100</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
     </row>
     <row r="143" spans="2:11">
@@ -6817,16 +6873,16 @@
         <v>101</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="I143" s="26" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="2:11">
@@ -6840,10 +6896,10 @@
         <v>110</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="2:11">
@@ -6872,16 +6928,16 @@
         <v>1000</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="H147" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
     </row>
     <row r="148" spans="2:11">
@@ -6895,21 +6951,21 @@
         <v>1001</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="B149" s="11" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="D149" s="12">
         <v>111</v>
@@ -6918,21 +6974,21 @@
         <v>1010</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I149" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="K149" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="K149" s="8" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="150" spans="2:11">
       <c r="B150" s="11" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="D150" s="12">
         <v>111</v>
@@ -6941,18 +6997,18 @@
         <v>1011</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
     </row>
     <row r="151" spans="2:11">
       <c r="B151" s="11" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D151" s="12">
         <v>111</v>
@@ -6961,18 +7017,18 @@
         <v>1100</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
     </row>
     <row r="152" spans="2:11">
       <c r="B152" s="11" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="D152" s="12">
         <v>111</v>
@@ -6981,21 +7037,21 @@
         <v>1101</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="H152" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="I152" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="K152" s="8" t="s">
         <v>501</v>
-      </c>
-      <c r="I152" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="K152" s="8" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="153" spans="2:11">
       <c r="B153" s="11" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="D153" s="12">
         <v>111</v>
@@ -7005,12 +7061,12 @@
       </c>
       <c r="G153" s="15"/>
       <c r="K153" s="8" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="2:11">
       <c r="B154" s="11" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D154" s="12">
         <v>111</v>
@@ -7020,7 +7076,7 @@
       </c>
       <c r="G154" s="15"/>
       <c r="K154" s="8" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="2:11" ht="7.5" customHeight="1">
@@ -7037,16 +7093,16 @@
         <v>0</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H156" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>495</v>
+        <v>667</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
     </row>
     <row r="157" spans="2:11">
@@ -7060,16 +7116,16 @@
         <v>1</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>496</v>
+        <v>668</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="2:11">
@@ -7083,16 +7139,16 @@
         <v>10</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>498</v>
+        <v>669</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
     <row r="159" spans="2:11">
@@ -7106,13 +7162,13 @@
         <v>11</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="2:11">
@@ -7126,13 +7182,13 @@
         <v>100</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="2:11">
@@ -7146,16 +7202,16 @@
         <v>101</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
     </row>
     <row r="162" spans="2:11">
@@ -7196,13 +7252,13 @@
         <v>1000</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
     </row>
     <row r="166" spans="2:11">
@@ -7216,18 +7272,18 @@
         <v>1001</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
     </row>
     <row r="167" spans="2:11">
       <c r="B167" s="11" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D167" s="12">
         <v>1000</v>
@@ -7236,18 +7292,18 @@
         <v>1010</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
     </row>
     <row r="168" spans="2:11">
       <c r="B168" s="11" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="D168" s="12">
         <v>1000</v>
@@ -7256,18 +7312,18 @@
         <v>1011</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="2:11">
       <c r="B169" s="11" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="D169" s="12">
         <v>1000</v>
@@ -7276,18 +7332,18 @@
         <v>1100</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
     </row>
     <row r="170" spans="2:11">
       <c r="B170" s="11" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="D170" s="12">
         <v>1000</v>
@@ -7296,18 +7352,18 @@
         <v>1101</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
     </row>
     <row r="171" spans="2:11">
       <c r="B171" s="11" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="D171" s="12">
         <v>1000</v>
@@ -7316,18 +7372,18 @@
         <v>1110</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="K171" s="10" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
     </row>
     <row r="172" spans="2:11">
       <c r="B172" s="11" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="D172" s="12">
         <v>1000</v>
@@ -7336,13 +7392,13 @@
         <v>1111</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="K172" s="10" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
     </row>
     <row r="173" spans="2:11" ht="6.75" customHeight="1">
@@ -7359,17 +7415,17 @@
         <v>0</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="10" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
     </row>
     <row r="175" spans="2:11">
@@ -7383,17 +7439,17 @@
         <v>1</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H175" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="J175" s="9"/>
       <c r="K175" s="10" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
     </row>
     <row r="176" spans="2:11">
@@ -7407,17 +7463,17 @@
         <v>10</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="10" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="2:11">
@@ -7431,14 +7487,14 @@
         <v>11</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="10" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
     </row>
     <row r="178" spans="2:11">
@@ -7452,14 +7508,14 @@
         <v>100</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="10" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
     </row>
     <row r="179" spans="2:11">
@@ -7473,17 +7529,17 @@
         <v>101</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="I179" s="26" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="J179" s="9"/>
       <c r="K179" s="10" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
     </row>
     <row r="180" spans="2:11">
@@ -7524,13 +7580,13 @@
         <v>1000</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="K183" s="10" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
     </row>
     <row r="184" spans="2:11">
@@ -7544,18 +7600,18 @@
         <v>1001</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="K184" s="10" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
     </row>
     <row r="185" spans="2:11">
       <c r="B185" s="11" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D185" s="12">
         <v>1001</v>
@@ -7564,18 +7620,18 @@
         <v>1010</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="K185" s="10" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
     </row>
     <row r="186" spans="2:11">
       <c r="B186" s="11" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="D186" s="12">
         <v>1001</v>
@@ -7584,18 +7640,18 @@
         <v>1011</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="K186" s="10" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
     </row>
     <row r="187" spans="2:11">
       <c r="B187" s="11" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="D187" s="12">
         <v>1001</v>
@@ -7604,18 +7660,18 @@
         <v>1100</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="K187" s="10" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
     </row>
     <row r="188" spans="2:11">
       <c r="B188" s="11" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="D188" s="12">
         <v>1001</v>
@@ -7624,18 +7680,18 @@
         <v>1101</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="K188" s="10" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
     </row>
     <row r="189" spans="2:11">
       <c r="B189" s="11" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="D189" s="12">
         <v>1001</v>
@@ -7644,18 +7700,18 @@
         <v>1110</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="K189" s="10" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
     </row>
     <row r="190" spans="2:11">
       <c r="B190" s="11" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="D190" s="12">
         <v>1001</v>
@@ -7664,13 +7720,13 @@
         <v>1111</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="K190" s="10" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="2:11" ht="6.75" customHeight="1">
@@ -7678,7 +7734,7 @@
     </row>
     <row r="192" spans="2:11">
       <c r="B192" s="11" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="D192" s="12">
         <v>1010</v>
@@ -7687,22 +7743,22 @@
         <v>0</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="H192" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I192" s="19" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="J192" s="19"/>
       <c r="K192" s="20" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
     </row>
     <row r="193" spans="2:11">
       <c r="B193" s="11" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="D193" s="12">
         <v>1010</v>
@@ -7711,22 +7767,22 @@
         <v>1</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H193" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I193" s="26" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="J193" s="9"/>
       <c r="K193" s="10" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
     </row>
     <row r="194" spans="2:11">
       <c r="B194" s="11" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="D194" s="12">
         <v>1010</v>
@@ -7735,22 +7791,22 @@
         <v>10</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I194" s="26" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="J194" s="9"/>
       <c r="K194" s="10" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="195" spans="2:11">
       <c r="B195" s="11" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="D195" s="12">
         <v>1010</v>
@@ -7759,19 +7815,19 @@
         <v>11</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J195" s="9"/>
       <c r="K195" s="10" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
     </row>
     <row r="196" spans="2:11">
       <c r="B196" s="11" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="D196" s="12">
         <v>1010</v>
@@ -7780,19 +7836,19 @@
         <v>100</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="J196" s="9"/>
       <c r="K196" s="10" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
     </row>
     <row r="197" spans="2:11">
       <c r="B197" s="11" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="D197" s="12">
         <v>1010</v>
@@ -7801,22 +7857,22 @@
         <v>101</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="I197" s="26" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="J197" s="9"/>
       <c r="K197" s="10" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="198" spans="2:11">
       <c r="B198" s="11" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="D198" s="12">
         <v>1010</v>
@@ -7828,7 +7884,7 @@
     </row>
     <row r="199" spans="2:11">
       <c r="B199" s="11" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D199" s="12">
         <v>1010</v>
@@ -7843,7 +7899,7 @@
     </row>
     <row r="201" spans="2:11">
       <c r="B201" s="11" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="D201" s="12">
         <v>1010</v>
@@ -7852,19 +7908,19 @@
         <v>1000</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="J201" s="9"/>
       <c r="K201" s="10" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
     </row>
     <row r="202" spans="2:11">
       <c r="B202" s="11" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="D202" s="12">
         <v>1010</v>
@@ -7873,19 +7929,19 @@
         <v>1001</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H202" s="9" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="J202" s="9"/>
       <c r="K202" s="10" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
     </row>
     <row r="203" spans="2:11">
       <c r="B203" s="11" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="D203" s="12">
         <v>1010</v>
@@ -7894,19 +7950,19 @@
         <v>1010</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="J203" s="9"/>
       <c r="K203" s="10" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
     </row>
     <row r="204" spans="2:11">
       <c r="B204" s="11" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="D204" s="12">
         <v>1010</v>
@@ -7915,19 +7971,19 @@
         <v>1011</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="10" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
     </row>
     <row r="205" spans="2:11">
       <c r="B205" s="11" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="D205" s="12">
         <v>1010</v>
@@ -7936,19 +7992,19 @@
         <v>1100</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="J205" s="9"/>
       <c r="K205" s="10" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
     </row>
     <row r="206" spans="2:11">
       <c r="B206" s="11" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="D206" s="12">
         <v>1010</v>
@@ -7957,19 +8013,19 @@
         <v>1101</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H206" s="9" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="J206" s="9"/>
       <c r="K206" s="10" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
     </row>
     <row r="207" spans="2:11">
       <c r="B207" s="11" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="D207" s="12">
         <v>1010</v>
@@ -7978,19 +8034,19 @@
         <v>1110</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H207" s="9" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="J207" s="9"/>
       <c r="K207" s="10" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
     </row>
     <row r="208" spans="2:11">
       <c r="B208" s="11" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="D208" s="12">
         <v>1010</v>
@@ -7999,14 +8055,14 @@
         <v>1111</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="J208" s="9"/>
       <c r="K208" s="10" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
     </row>
     <row r="209" spans="2:11" ht="6.75" customHeight="1">
@@ -8014,7 +8070,7 @@
     </row>
     <row r="210" spans="2:11">
       <c r="B210" s="11" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="D210" s="12">
         <v>1011</v>
@@ -8023,22 +8079,22 @@
         <v>0</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H210" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I210" s="19" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="J210" s="19"/>
       <c r="K210" s="20" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
     </row>
     <row r="211" spans="2:11">
       <c r="B211" s="11" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="D211" s="12">
         <v>1011</v>
@@ -8047,22 +8103,22 @@
         <v>1</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H211" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I211" s="26" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="J211" s="9"/>
       <c r="K211" s="10" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
     </row>
     <row r="212" spans="2:11">
       <c r="B212" s="11" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="D212" s="12">
         <v>1011</v>
@@ -8071,22 +8127,22 @@
         <v>10</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H212" s="9" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I212" s="26" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="J212" s="9"/>
       <c r="K212" s="10" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
     </row>
     <row r="213" spans="2:11">
       <c r="B213" s="11" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="D213" s="12">
         <v>1011</v>
@@ -8095,19 +8151,19 @@
         <v>11</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H213" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J213" s="9"/>
       <c r="K213" s="10" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
     </row>
     <row r="214" spans="2:11">
       <c r="B214" s="11" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="D214" s="12">
         <v>1011</v>
@@ -8116,19 +8172,19 @@
         <v>100</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H214" s="9" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="J214" s="9"/>
       <c r="K214" s="10" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
     </row>
     <row r="215" spans="2:11">
       <c r="B215" s="11" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="D215" s="12">
         <v>1011</v>
@@ -8137,22 +8193,22 @@
         <v>101</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H215" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="I215" s="26" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="J215" s="9"/>
       <c r="K215" s="10" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
     </row>
     <row r="216" spans="2:11">
       <c r="B216" s="11" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D216" s="12">
         <v>1011</v>
@@ -8167,7 +8223,7 @@
     </row>
     <row r="217" spans="2:11">
       <c r="B217" s="11" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D217" s="12">
         <v>1011</v>
@@ -8188,7 +8244,7 @@
     </row>
     <row r="219" spans="2:11">
       <c r="B219" s="11" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="D219" s="12">
         <v>1011</v>
@@ -8197,19 +8253,19 @@
         <v>1000</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H219" s="9" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="J219" s="9"/>
       <c r="K219" s="10" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
     </row>
     <row r="220" spans="2:11">
       <c r="B220" s="11" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="D220" s="12">
         <v>1011</v>
@@ -8218,19 +8274,19 @@
         <v>1001</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H220" s="9" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="J220" s="9"/>
       <c r="K220" s="10" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
     </row>
     <row r="221" spans="2:11">
       <c r="B221" s="11" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="D221" s="12">
         <v>1011</v>
@@ -8239,19 +8295,19 @@
         <v>1010</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H221" s="9" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="J221" s="9"/>
       <c r="K221" s="10" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
     </row>
     <row r="222" spans="2:11">
       <c r="B222" s="11" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="D222" s="12">
         <v>1011</v>
@@ -8260,19 +8316,19 @@
         <v>1011</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="J222" s="9"/>
       <c r="K222" s="10" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
     </row>
     <row r="223" spans="2:11">
       <c r="B223" s="11" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="D223" s="12">
         <v>1011</v>
@@ -8281,19 +8337,19 @@
         <v>1100</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="J223" s="9"/>
       <c r="K223" s="10" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
     </row>
     <row r="224" spans="2:11">
       <c r="B224" s="11" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="D224" s="12">
         <v>1011</v>
@@ -8302,19 +8358,19 @@
         <v>1101</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H224" s="9" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="J224" s="9"/>
       <c r="K224" s="10" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
     </row>
     <row r="225" spans="2:11">
       <c r="B225" s="11" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="D225" s="12">
         <v>1011</v>
@@ -8323,19 +8379,19 @@
         <v>1110</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H225" s="9" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="J225" s="9"/>
       <c r="K225" s="10" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
     </row>
     <row r="226" spans="2:11">
       <c r="B226" s="11" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="D226" s="12">
         <v>1011</v>
@@ -8344,14 +8400,14 @@
         <v>1111</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="H226" s="9" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="J226" s="9"/>
       <c r="K226" s="10" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
     </row>
     <row r="227" spans="2:11" ht="6.75" customHeight="1">
@@ -8359,7 +8415,7 @@
     </row>
     <row r="228" spans="2:11">
       <c r="B228" s="11" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="D228" s="12">
         <v>1100</v>
@@ -8368,22 +8424,22 @@
         <v>0</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H228" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I228" s="19" t="s">
-        <v>495</v>
+        <v>667</v>
       </c>
       <c r="J228" s="9"/>
       <c r="K228" s="10" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
     </row>
     <row r="229" spans="2:11">
       <c r="B229" s="11" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="D229" s="12">
         <v>1100</v>
@@ -8392,22 +8448,22 @@
         <v>1</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H229" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I229" s="26" t="s">
-        <v>496</v>
+        <v>668</v>
       </c>
       <c r="J229" s="9"/>
       <c r="K229" s="10" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="230" spans="2:11">
       <c r="B230" s="11" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="D230" s="12">
         <v>1100</v>
@@ -8416,22 +8472,22 @@
         <v>10</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I230" s="26" t="s">
-        <v>498</v>
+        <v>669</v>
       </c>
       <c r="J230" s="9"/>
       <c r="K230" s="10" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
     </row>
     <row r="231" spans="2:11">
       <c r="B231" s="11" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="D231" s="12">
         <v>1100</v>
@@ -8440,19 +8496,19 @@
         <v>11</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H231" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J231" s="9"/>
       <c r="K231" s="10" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
     </row>
     <row r="232" spans="2:11">
       <c r="B232" s="11" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="D232" s="12">
         <v>1100</v>
@@ -8461,19 +8517,19 @@
         <v>100</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H232" s="9" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="J232" s="9"/>
       <c r="K232" s="10" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
     </row>
     <row r="233" spans="2:11">
       <c r="B233" s="11" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="D233" s="12">
         <v>1100</v>
@@ -8482,22 +8538,22 @@
         <v>101</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H233" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="I233" s="26" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="J233" s="9"/>
       <c r="K233" s="10" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
     </row>
     <row r="234" spans="2:11">
       <c r="B234" s="11" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="D234" s="12">
         <v>1100</v>
@@ -8512,7 +8568,7 @@
     </row>
     <row r="235" spans="2:11">
       <c r="B235" s="11" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="D235" s="12">
         <v>1100</v>
@@ -8533,7 +8589,7 @@
     </row>
     <row r="237" spans="2:11">
       <c r="B237" s="11" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="D237" s="12">
         <v>1100</v>
@@ -8542,19 +8598,19 @@
         <v>1000</v>
       </c>
       <c r="G237" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H237" s="9" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="J237" s="9"/>
       <c r="K237" s="10" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
     </row>
     <row r="238" spans="2:11">
       <c r="B238" s="11" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="D238" s="12">
         <v>1100</v>
@@ -8563,19 +8619,19 @@
         <v>1001</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H238" s="9" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="J238" s="9"/>
       <c r="K238" s="10" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
     </row>
     <row r="239" spans="2:11">
       <c r="B239" s="11" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="D239" s="12">
         <v>1100</v>
@@ -8584,19 +8640,19 @@
         <v>1010</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H239" s="9" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="J239" s="9"/>
       <c r="K239" s="10" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="240" spans="2:11">
       <c r="B240" s="11" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="D240" s="12">
         <v>1100</v>
@@ -8605,19 +8661,19 @@
         <v>1011</v>
       </c>
       <c r="G240" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H240" s="9" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="J240" s="9"/>
       <c r="K240" s="10" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
     </row>
     <row r="241" spans="2:11">
       <c r="B241" s="11" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="D241" s="12">
         <v>1100</v>
@@ -8626,19 +8682,19 @@
         <v>1100</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H241" s="9" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="J241" s="9"/>
       <c r="K241" s="10" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
     </row>
     <row r="242" spans="2:11">
       <c r="B242" s="11" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="D242" s="12">
         <v>1100</v>
@@ -8647,19 +8703,19 @@
         <v>1101</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H242" s="9" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="J242" s="9"/>
       <c r="K242" s="10" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
     </row>
     <row r="243" spans="2:11">
       <c r="B243" s="11" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="D243" s="12">
         <v>1100</v>
@@ -8668,19 +8724,19 @@
         <v>1110</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H243" s="9" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="J243" s="9"/>
       <c r="K243" s="10" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
     </row>
     <row r="244" spans="2:11">
       <c r="B244" s="11" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="D244" s="12">
         <v>1100</v>
@@ -8689,14 +8745,14 @@
         <v>1111</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H244" s="9" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="J244" s="9"/>
       <c r="K244" s="10" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
     </row>
     <row r="245" spans="2:11" ht="6.75" customHeight="1">
@@ -8707,7 +8763,7 @@
     </row>
     <row r="246" spans="2:11">
       <c r="B246" s="11" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="D246" s="12">
         <v>1101</v>
@@ -8716,22 +8772,22 @@
         <v>0</v>
       </c>
       <c r="G246" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H246" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I246" s="19" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="J246" s="9"/>
       <c r="K246" s="10" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
     </row>
     <row r="247" spans="2:11">
       <c r="B247" s="11" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="D247" s="12">
         <v>1101</v>
@@ -8740,22 +8796,22 @@
         <v>1</v>
       </c>
       <c r="G247" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H247" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I247" s="26" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="J247" s="9"/>
       <c r="K247" s="10" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
     </row>
     <row r="248" spans="2:11">
       <c r="B248" s="11" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="D248" s="12">
         <v>1101</v>
@@ -8764,22 +8820,22 @@
         <v>10</v>
       </c>
       <c r="G248" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H248" s="9" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I248" s="26" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="J248" s="9"/>
       <c r="K248" s="10" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
     </row>
     <row r="249" spans="2:11">
       <c r="B249" s="11" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="D249" s="12">
         <v>1101</v>
@@ -8788,19 +8844,19 @@
         <v>11</v>
       </c>
       <c r="G249" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H249" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J249" s="9"/>
       <c r="K249" s="10" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
     </row>
     <row r="250" spans="2:11">
       <c r="B250" s="11" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="D250" s="12">
         <v>1101</v>
@@ -8809,19 +8865,19 @@
         <v>100</v>
       </c>
       <c r="G250" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="J250" s="9"/>
       <c r="K250" s="10" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
     </row>
     <row r="251" spans="2:11">
       <c r="B251" s="11" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="D251" s="12">
         <v>1101</v>
@@ -8830,22 +8886,22 @@
         <v>101</v>
       </c>
       <c r="G251" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H251" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="I251" s="26" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="J251" s="9"/>
       <c r="K251" s="10" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
     </row>
     <row r="252" spans="2:11">
       <c r="B252" s="11" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="D252" s="12">
         <v>1101</v>
@@ -8860,7 +8916,7 @@
     </row>
     <row r="253" spans="2:11">
       <c r="B253" s="11" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="D253" s="12">
         <v>1101</v>
@@ -8881,7 +8937,7 @@
     </row>
     <row r="255" spans="2:11">
       <c r="B255" s="11" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="D255" s="12">
         <v>1101</v>
@@ -8890,19 +8946,19 @@
         <v>1000</v>
       </c>
       <c r="G255" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H255" s="9" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="J255" s="9"/>
       <c r="K255" s="10" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="256" spans="2:11">
       <c r="B256" s="11" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="D256" s="12">
         <v>1101</v>
@@ -8911,19 +8967,19 @@
         <v>1001</v>
       </c>
       <c r="G256" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H256" s="9" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="J256" s="9"/>
       <c r="K256" s="10" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
     </row>
     <row r="257" spans="2:11">
       <c r="B257" s="11" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="D257" s="12">
         <v>1101</v>
@@ -8932,19 +8988,19 @@
         <v>1010</v>
       </c>
       <c r="G257" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H257" s="9" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="J257" s="9"/>
       <c r="K257" s="10" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
     </row>
     <row r="258" spans="2:11">
       <c r="B258" s="11" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="D258" s="12">
         <v>1101</v>
@@ -8953,19 +9009,19 @@
         <v>1011</v>
       </c>
       <c r="G258" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H258" s="9" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="J258" s="9"/>
       <c r="K258" s="10" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
     </row>
     <row r="259" spans="2:11">
       <c r="B259" s="11" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="D259" s="12">
         <v>1101</v>
@@ -8974,19 +9030,19 @@
         <v>1100</v>
       </c>
       <c r="G259" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H259" s="9" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="J259" s="9"/>
       <c r="K259" s="10" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
     </row>
     <row r="260" spans="2:11">
       <c r="B260" s="11" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D260" s="12">
         <v>1101</v>
@@ -8995,19 +9051,19 @@
         <v>1101</v>
       </c>
       <c r="G260" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H260" s="9" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="J260" s="9"/>
       <c r="K260" s="10" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
     </row>
     <row r="261" spans="2:11">
       <c r="B261" s="11" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="D261" s="12">
         <v>1101</v>
@@ -9016,19 +9072,19 @@
         <v>1110</v>
       </c>
       <c r="G261" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H261" s="9" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="J261" s="9"/>
       <c r="K261" s="10" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
     </row>
     <row r="262" spans="2:11">
       <c r="B262" s="11" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="D262" s="12">
         <v>1101</v>
@@ -9037,14 +9093,14 @@
         <v>1111</v>
       </c>
       <c r="G262" s="13" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H262" s="9" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="J262" s="9"/>
       <c r="K262" s="10" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
     </row>
     <row r="263" spans="2:11" ht="7.5" customHeight="1">
@@ -9055,7 +9111,7 @@
     </row>
     <row r="264" spans="2:11">
       <c r="B264" s="11" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="D264" s="12">
         <v>1110</v>
@@ -9064,22 +9120,22 @@
         <v>0</v>
       </c>
       <c r="G264" s="13" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="H264" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I264" s="19" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="J264" s="19"/>
       <c r="K264" s="20" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265" spans="2:11">
       <c r="B265" s="11" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="D265" s="12">
         <v>1110</v>
@@ -9088,22 +9144,22 @@
         <v>1</v>
       </c>
       <c r="G265" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H265" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I265" s="26" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="J265" s="9"/>
       <c r="K265" s="10" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
     </row>
     <row r="266" spans="2:11">
       <c r="B266" s="11" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="D266" s="12">
         <v>1110</v>
@@ -9112,22 +9168,22 @@
         <v>10</v>
       </c>
       <c r="G266" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H266" s="9" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I266" s="26" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="J266" s="9"/>
       <c r="K266" s="10" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
     </row>
     <row r="267" spans="2:11">
       <c r="B267" s="11" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="D267" s="12">
         <v>1110</v>
@@ -9136,19 +9192,19 @@
         <v>11</v>
       </c>
       <c r="G267" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H267" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J267" s="9"/>
       <c r="K267" s="10" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
     </row>
     <row r="268" spans="2:11">
       <c r="B268" s="11" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="D268" s="12">
         <v>1110</v>
@@ -9157,19 +9213,19 @@
         <v>100</v>
       </c>
       <c r="G268" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H268" s="9" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="J268" s="9"/>
       <c r="K268" s="10" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
     </row>
     <row r="269" spans="2:11">
       <c r="B269" s="11" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="D269" s="12">
         <v>1110</v>
@@ -9178,22 +9234,22 @@
         <v>101</v>
       </c>
       <c r="G269" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H269" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="I269" s="26" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="J269" s="9"/>
       <c r="K269" s="10" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
     </row>
     <row r="270" spans="2:11">
       <c r="B270" s="11" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="D270" s="12">
         <v>1110</v>
@@ -9208,7 +9264,7 @@
     </row>
     <row r="271" spans="2:11">
       <c r="B271" s="11" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="D271" s="12">
         <v>1110</v>
@@ -9229,7 +9285,7 @@
     </row>
     <row r="273" spans="2:11">
       <c r="B273" s="11" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="D273" s="12">
         <v>1110</v>
@@ -9238,19 +9294,19 @@
         <v>1000</v>
       </c>
       <c r="G273" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H273" s="9" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="J273" s="9"/>
       <c r="K273" s="10" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
     </row>
     <row r="274" spans="2:11">
       <c r="B274" s="11" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="D274" s="12">
         <v>1110</v>
@@ -9259,19 +9315,19 @@
         <v>1001</v>
       </c>
       <c r="G274" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H274" s="9" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="J274" s="9"/>
       <c r="K274" s="10" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
     </row>
     <row r="275" spans="2:11">
       <c r="B275" s="11" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="D275" s="12">
         <v>1110</v>
@@ -9280,19 +9336,19 @@
         <v>1010</v>
       </c>
       <c r="G275" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H275" s="9" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="J275" s="9"/>
       <c r="K275" s="10" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
     </row>
     <row r="276" spans="2:11">
       <c r="B276" s="11" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="D276" s="12">
         <v>1110</v>
@@ -9301,19 +9357,19 @@
         <v>1011</v>
       </c>
       <c r="G276" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H276" s="9" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="J276" s="9"/>
       <c r="K276" s="10" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
     </row>
     <row r="277" spans="2:11">
       <c r="B277" s="11" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="D277" s="12">
         <v>1110</v>
@@ -9322,19 +9378,19 @@
         <v>1100</v>
       </c>
       <c r="G277" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H277" s="9" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="J277" s="9"/>
       <c r="K277" s="10" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
     </row>
     <row r="278" spans="2:11">
       <c r="B278" s="11" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="D278" s="12">
         <v>1110</v>
@@ -9343,19 +9399,19 @@
         <v>1101</v>
       </c>
       <c r="G278" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H278" s="9" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="J278" s="9"/>
       <c r="K278" s="10" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
     </row>
     <row r="279" spans="2:11">
       <c r="B279" s="11" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="D279" s="12">
         <v>1110</v>
@@ -9364,19 +9420,19 @@
         <v>1110</v>
       </c>
       <c r="G279" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H279" s="9" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="J279" s="9"/>
       <c r="K279" s="10" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
     </row>
     <row r="280" spans="2:11">
       <c r="B280" s="11" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="D280" s="12">
         <v>1110</v>
@@ -9385,14 +9441,14 @@
         <v>1111</v>
       </c>
       <c r="G280" s="13" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="H280" s="9" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="J280" s="9"/>
       <c r="K280" s="10" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
     </row>
     <row r="281" spans="2:11" ht="7.5" customHeight="1">
@@ -9403,7 +9459,7 @@
     </row>
     <row r="282" spans="2:11">
       <c r="B282" s="11" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="D282" s="12">
         <v>1111</v>
@@ -9412,22 +9468,22 @@
         <v>0</v>
       </c>
       <c r="G282" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H282" s="19" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="J282" s="19"/>
       <c r="K282" s="20" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
     </row>
     <row r="283" spans="2:11">
       <c r="B283" s="11" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="D283" s="12">
         <v>1111</v>
@@ -9436,22 +9492,22 @@
         <v>1</v>
       </c>
       <c r="G283" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H283" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I283" s="26" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="J283" s="9"/>
       <c r="K283" s="10" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
     </row>
     <row r="284" spans="2:11">
       <c r="B284" s="11" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="D284" s="12">
         <v>1111</v>
@@ -9460,22 +9516,22 @@
         <v>10</v>
       </c>
       <c r="G284" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H284" s="9" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="I284" s="26" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="J284" s="9"/>
       <c r="K284" s="10" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="2:11">
       <c r="B285" s="11" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="D285" s="12">
         <v>1111</v>
@@ -9484,19 +9540,19 @@
         <v>11</v>
       </c>
       <c r="G285" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H285" s="9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J285" s="9"/>
       <c r="K285" s="10" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
     </row>
     <row r="286" spans="2:11">
       <c r="B286" s="11" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D286" s="12">
         <v>1111</v>
@@ -9505,19 +9561,19 @@
         <v>100</v>
       </c>
       <c r="G286" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H286" s="9" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="J286" s="9"/>
       <c r="K286" s="10" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="2:11">
       <c r="B287" s="11" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="D287" s="12">
         <v>1111</v>
@@ -9526,22 +9582,22 @@
         <v>101</v>
       </c>
       <c r="G287" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H287" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="I287" s="26" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="J287" s="9"/>
       <c r="K287" s="10" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
     </row>
     <row r="288" spans="2:11">
       <c r="B288" s="11" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="D288" s="12">
         <v>1111</v>
@@ -9556,7 +9612,7 @@
     </row>
     <row r="289" spans="2:11">
       <c r="B289" s="11" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="D289" s="12">
         <v>1111</v>
@@ -9577,7 +9633,7 @@
     </row>
     <row r="291" spans="2:11">
       <c r="B291" s="11" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="D291" s="12">
         <v>1111</v>
@@ -9586,19 +9642,19 @@
         <v>1000</v>
       </c>
       <c r="G291" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H291" s="9" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="J291" s="9"/>
       <c r="K291" s="10" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
     </row>
     <row r="292" spans="2:11">
       <c r="B292" s="11" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="D292" s="12">
         <v>1111</v>
@@ -9607,19 +9663,19 @@
         <v>1001</v>
       </c>
       <c r="G292" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H292" s="9" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="J292" s="9"/>
       <c r="K292" s="10" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
     </row>
     <row r="293" spans="2:11">
       <c r="B293" s="11" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="D293" s="12">
         <v>1111</v>
@@ -9628,19 +9684,19 @@
         <v>1010</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H293" s="9" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="J293" s="9"/>
       <c r="K293" s="10" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
     </row>
     <row r="294" spans="2:11">
       <c r="B294" s="11" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="D294" s="12">
         <v>1111</v>
@@ -9649,19 +9705,19 @@
         <v>1011</v>
       </c>
       <c r="G294" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H294" s="9" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="J294" s="9"/>
       <c r="K294" s="10" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
     </row>
     <row r="295" spans="2:11">
       <c r="B295" s="11" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="D295" s="12">
         <v>1111</v>
@@ -9670,19 +9726,19 @@
         <v>1100</v>
       </c>
       <c r="G295" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H295" s="9" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="J295" s="9"/>
       <c r="K295" s="10" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
     </row>
     <row r="296" spans="2:11">
       <c r="B296" s="11" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="D296" s="12">
         <v>1111</v>
@@ -9691,19 +9747,19 @@
         <v>1101</v>
       </c>
       <c r="G296" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H296" s="9" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="J296" s="9"/>
       <c r="K296" s="10" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
     </row>
     <row r="297" spans="2:11">
       <c r="B297" s="11" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="D297" s="12">
         <v>1111</v>
@@ -9712,19 +9768,19 @@
         <v>1110</v>
       </c>
       <c r="G297" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H297" s="9" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="J297" s="9"/>
       <c r="K297" s="10" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
     </row>
     <row r="298" spans="2:11">
       <c r="B298" s="11" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="D298" s="12">
         <v>1111</v>
@@ -9733,14 +9789,14 @@
         <v>1111</v>
       </c>
       <c r="G298" s="13" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H298" s="9" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="J298" s="9"/>
       <c r="K298" s="10" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
     </row>
     <row r="299" spans="2:11" ht="6.75" customHeight="1"/>
